--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail14 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>1.17328102648459e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.6154368021921609</v>
+        <v>6.331002438127493e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.05573866398492333</v>
+        <v>4.291393547346149e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.331002438127493e-07</v>
+        <v>-0.02984102756987231</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.291393547346149e-06</v>
+        <v>0.4425727603572253</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02984102756987231</v>
+        <v>0.1961346924149033</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4425727603572253</v>
+        <v>1.421766711410785</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1961346924149033</v>
+        <v>1.617937981498817</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.3222206215096</v>
+        <v>3.978090378155182</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.617937981498817</v>
+        <v>1.036075709819649e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.978090378155182</v>
+        <v>28207236.44955866</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.036075709819649e-14</v>
+        <v>3.547633584407147e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>28207236.44955866</v>
+        <v>8.243517612745048</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.547633584407147e-06</v>
+        <v>9.360535297685218e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.243517612745048</v>
+        <v>6.574328842001658</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.360535297685218e-05</v>
+        <v>1.338746460318948</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.574328842001658</v>
+        <v>0.004045791819345153</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.338746460318948</v>
+        <v>3.293586761691883</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004045791819345153</v>
+        <v>0.9288739282701861</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.293586761691883</v>
+        <v>1.8662656243988</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9288739282701861</v>
+        <v>19</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.8662656243988</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2640840848483325</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>1.159841514332449e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.7046901231514988</v>
+        <v>4.57060715552075e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.1749332347301316</v>
+        <v>4.290890311379274e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.57060715552075e-07</v>
+        <v>0.01791071921000856</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.290890311379274e-06</v>
+        <v>0.2961791056866268</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01791071921000856</v>
+        <v>0.08776182497422182</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2961791056866268</v>
+        <v>1.425276032718158</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08776182497422182</v>
+        <v>1.559777823313431</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.327196953363076</v>
+        <v>3.814079084887669</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.559777823313431</v>
+        <v>1.127097263914982e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.814079084887669</v>
+        <v>26154143.94363459</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.127097263914982e-14</v>
+        <v>3.845464458301386e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>26154143.94363459</v>
+        <v>7.709787619282628</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.845464458301386e-06</v>
+        <v>9.698167878518259e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.709787619282628</v>
+        <v>6.708544734611877</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.698167878518259e-05</v>
+        <v>2.416459609187357</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.708544734611877</v>
+        <v>0.00436461898982027</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.416459609187357</v>
+        <v>3.508817771285401</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00436461898982027</v>
+        <v>0.9286939548308237</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.508817771285401</v>
+        <v>1.893301844652569</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9286939548308237</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.893301844652569</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2583380520553455</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>1.182401799764242e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.688060842381609</v>
+        <v>4.824071484747788e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.181383309457436</v>
+        <v>4.294888920264802e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.824071484747788e-07</v>
+        <v>0.04730295505744851</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.294888920264802e-06</v>
+        <v>0.2026162558974094</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04730295505744851</v>
+        <v>0.04320397596970398</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2026162558974094</v>
+        <v>1.446094780497196</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04320397596970398</v>
+        <v>1.54851925090727</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.34609764741735</v>
+        <v>3.942900410657715</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.54851925090727</v>
+        <v>1.054651968507868e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.942900410657715</v>
+        <v>28064048.30262267</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.054651968507868e-14</v>
+        <v>3.62711119461387e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>28064048.30262267</v>
+        <v>8.306341951203997</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.62711119461387e-06</v>
+        <v>9.284170555322114e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.306341951203997</v>
+        <v>7.084382992241582</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.284170555322114e-05</v>
+        <v>2.126579772236295</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.084382992241582</v>
+        <v>0.004659584303357714</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.126579772236295</v>
+        <v>3.50883457185666</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004659584303357714</v>
+        <v>0.9291584125158117</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.50883457185666</v>
+        <v>1.900941303481999</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9291584125158117</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.900941303481999</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2585645991792848</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>1.187076227144257e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.680906487798538</v>
+        <v>5.041525861261426e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.0352111659785419</v>
+        <v>4.301595461170052e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.041525861261426e-07</v>
+        <v>0.06397133231335123</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.301595461170052e-06</v>
+        <v>0.1658465192064996</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06397133231335123</v>
+        <v>0.03157777271404226</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1658465192064996</v>
+        <v>1.998699811841227</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03157777271404226</v>
+        <v>1.1880880082691</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.753141786610275</v>
+        <v>27.87689688828259</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.1880880082691</v>
+        <v>2.207902492941008e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>27.87689688828259</v>
+        <v>406574610.7309875</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.207902492941008e-14</v>
+        <v>2.446121284714535e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>406574610.7309875</v>
+        <v>3649.727161120514</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.446121284714535e-07</v>
+        <v>9.438481482259556e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3649.727161120514</v>
+        <v>8.46036618638519</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.438481482259556e-05</v>
+        <v>1.628207635035821</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.46036618638519</v>
+        <v>0.006755857021599106</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.628207635035821</v>
+        <v>3.390932737932948</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006755857021599106</v>
+        <v>0.9337419366761839</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.390932737932948</v>
+        <v>0.9894746879303078</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9337419366761839</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9894746879303078</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2444853205434594</v>
       </c>
     </row>
@@ -4668,72 +4632,66 @@
         <v>1.171743793843366e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.607014036344051</v>
+        <v>5.268926247421333e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0715912061829731</v>
+        <v>4.309754814584836e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.268926247421333e-07</v>
+        <v>0.07386505905176206</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.309754814584836e-06</v>
+        <v>0.1594440016279531</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.07386505905176206</v>
+        <v>0.03087248927241449</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1594440016279531</v>
+        <v>1.549104051977005</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03087248927241449</v>
+        <v>1.193991741081833</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.544041294566191</v>
+        <v>27.29786556785138</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.193991741081833</v>
+        <v>2.382279444391446e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>27.29786556785138</v>
+        <v>358154792.4937462</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.382279444391446e-14</v>
+        <v>2.972050505452779e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>358154792.4937462</v>
+        <v>3055.86551218921</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.972050505452779e-07</v>
+        <v>9.272490051911222e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3055.86551218921</v>
+        <v>8.776385189675164</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>9.272490051911222e-05</v>
+        <v>1.438009565576849</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.776385189675164</v>
+        <v>0.00714212962058867</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.438009565576849</v>
+        <v>3.515686352888851</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00714212962058867</v>
+        <v>0.9345798752108798</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.515686352888851</v>
+        <v>0.981968714254587</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9345798752108798</v>
+        <v>23</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.981968714254587</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.5319202134790901</v>
       </c>
     </row>
@@ -4748,72 +4706,66 @@
         <v>1.151158308364763e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4307274347105937</v>
+        <v>5.625923926556525e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0632515389911612</v>
+        <v>4.318792991527327e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.625923926556525e-07</v>
+        <v>0.0814657702724452</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.318792991527327e-06</v>
+        <v>0.1639011550105038</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0814657702724452</v>
+        <v>0.03349395600224248</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1639011550105038</v>
+        <v>1.549190133921437</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03349395600224248</v>
+        <v>1.18996317633097</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.54499625472797</v>
+        <v>27.22890083483443</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.18996317633097</v>
+        <v>2.394362291653794e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>27.22890083483443</v>
+        <v>356358373.773928</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.394362291653794e-14</v>
+        <v>2.9870153284666e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>356358373.773928</v>
+        <v>3040.631574824378</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.9870153284666e-07</v>
+        <v>5.906611604359099e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3040.631574824378</v>
+        <v>8.152973529395064</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>5.906611604359099e-05</v>
+        <v>1.459868385154645</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.152973529395064</v>
+        <v>0.003926182462927377</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.459868385154645</v>
+        <v>5.397580379150975</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003926182462927377</v>
+        <v>0.9333497753136902</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.397580379150975</v>
+        <v>0.9594425622918011</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9333497753136902</v>
+        <v>21</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9594425622918011</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.124234824295497</v>
       </c>
     </row>
@@ -4828,72 +4780,66 @@
         <v>1.138158604449142e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1555305901570761</v>
+        <v>5.847748407188668e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.01444317519939498</v>
+        <v>4.328390223063201e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.847748407188668e-07</v>
+        <v>0.08565620580177198</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.328390223063201e-06</v>
+        <v>0.1683480000264992</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.08565620580177198</v>
+        <v>0.03566890129309954</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1683480000264992</v>
+        <v>1.563316717669198</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03566890129309954</v>
+        <v>1.200726969331629</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.55876977150793</v>
+        <v>27.26277124320967</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.200726969331629</v>
+        <v>2.38841662669734e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>27.26277124320967</v>
+        <v>357260941.437427</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.38841662669734e-14</v>
+        <v>2.979555656329632e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>357260941.437427</v>
+        <v>3048.464644078433</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.979555656329632e-07</v>
+        <v>2.288455410275856e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3048.464644078433</v>
+        <v>7.16778109382026</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.288455410275856e-05</v>
+        <v>1.925067777396193</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.16778109382026</v>
+        <v>0.001175741699836463</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.925067777396193</v>
+        <v>7.499328307074727</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.001175741699836463</v>
+        <v>0.9397512087251894</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.499328307074727</v>
+        <v>0.9298858305325058</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9397512087251894</v>
+        <v>23</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9298858305325058</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>6.844476484193128</v>
       </c>
     </row>
@@ -4908,72 +4854,66 @@
         <v>1.142343962420502e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1662633310575022</v>
+        <v>5.950619429926183e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.06833996931287345</v>
+        <v>4.338226434875017e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.950619429926183e-07</v>
+        <v>0.08684333439885455</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.338226434875017e-06</v>
+        <v>0.1695161283011108</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.08684333439885455</v>
+        <v>0.03626848050405632</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1695161283011108</v>
+        <v>1.557815878583625</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03626848050405632</v>
+        <v>1.205568485938565</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.551813623719682</v>
+        <v>28.10760878417021</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.205568485938565</v>
+        <v>2.246995923136407e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>28.10760878417021</v>
+        <v>379750800.9562057</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.246995923136407e-14</v>
+        <v>2.803048287916403e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>379750800.9562057</v>
+        <v>3240.407894207653</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.803048287916403e-07</v>
+        <v>8.588105593499668e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3240.407894207653</v>
+        <v>6.344268201437438</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>8.588105593499668e-06</v>
+        <v>2.224590803658335</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.344268201437438</v>
+        <v>0.0003456690087438857</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.224590803658335</v>
+        <v>8.43098128128651</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0003456690087438857</v>
+        <v>0.9412777732912571</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.43098128128651</v>
+        <v>0.9242855457487341</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9412777732912571</v>
+        <v>24</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9242855457487341</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>9.047532018035643</v>
       </c>
     </row>
@@ -4988,72 +4928,66 @@
         <v>1.164779899066077e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4794213659669866</v>
+        <v>5.944500215369815e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.2351656265767179</v>
+        <v>4.348164828844964e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.944500215369815e-07</v>
+        <v>0.08508026103579218</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.348164828844964e-06</v>
+        <v>0.1661889944564172</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.08508026103579218</v>
+        <v>0.03485010252028099</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1661889944564172</v>
+        <v>1.563114548726876</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03485010252028099</v>
+        <v>1.197451221040569</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.558645000396224</v>
+        <v>27.65148496281684</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.197451221040569</v>
+        <v>2.321737770328749e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>27.65148496281684</v>
+        <v>367526298.8616491</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.321737770328749e-14</v>
+        <v>2.896282934794961e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>367526298.8616491</v>
+        <v>3136.100767591453</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.896282934794961e-07</v>
+        <v>7.473964128036148e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3136.100767591453</v>
+        <v>5.837159721491582</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>7.473964128036148e-06</v>
+        <v>1.991140128331142</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>5.837159721491582</v>
+        <v>0.0002546561465874513</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.991140128331142</v>
+        <v>8.470406313956628</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0002546561465874513</v>
+        <v>0.9419888117118492</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.470406313956628</v>
+        <v>0.9968773685985374</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9419888117118492</v>
+        <v>21</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9968773685985374</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>9.224050441583636</v>
       </c>
     </row>
@@ -5068,72 +5002,66 @@
         <v>1.201351009882191e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7226521353406543</v>
+        <v>5.806644657581152e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.4041042610873373</v>
+        <v>4.357965385890503e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.806644657581152e-07</v>
+        <v>0.08056918004103727</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.357965385890503e-06</v>
+        <v>0.1595583277755189</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.08056918004103727</v>
+        <v>0.03194661007598042</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1595583277755189</v>
+        <v>1.564323372876332</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03194661007598042</v>
+        <v>1.200215529179904</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.558555961659926</v>
+        <v>26.87414305428538</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.200215529179904</v>
+        <v>2.457994096807398e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>26.87414305428538</v>
+        <v>347166658.4632145</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.457994096807398e-14</v>
+        <v>3.066160387923054e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>347166658.4632145</v>
+        <v>2962.489734633969</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.066160387923054e-07</v>
+        <v>1.163301846155419e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2962.489734633969</v>
+        <v>6.464258538909056</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1.163301846155419e-05</v>
+        <v>1.662605431006217</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.464258538909056</v>
+        <v>0.00048610473662656</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.662605431006217</v>
+        <v>8.079626453184854</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.00048610473662656</v>
+        <v>0.9418118739262299</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.079626453184854</v>
+        <v>0.9552545381096863</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9418118739262299</v>
+        <v>13</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9552545381096863</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>8.255946654547882</v>
       </c>
     </row>
@@ -5148,72 +5076,66 @@
         <v>1.244646812593455e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.8779773845054967</v>
+        <v>5.61600768014492e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.4683666466948622</v>
+        <v>4.367491082094345e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.61600768014492e-07</v>
+        <v>0.07520760183583965</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.367491082094345e-06</v>
+        <v>0.1530553366643223</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.07520760183583965</v>
+        <v>0.02908013062429401</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1530553366643223</v>
+        <v>1.564410765646044</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02908013062429401</v>
+        <v>1.196638334411057</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.559916788973476</v>
+        <v>26.50623545926703</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.196638334411057</v>
+        <v>2.526701753160782e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>26.50623545926703</v>
+        <v>337736269.8567075</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.526701753160782e-14</v>
+        <v>3.151778236885552e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>337736269.8567075</v>
+        <v>2882.102264564514</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.151778236885552e-07</v>
+        <v>2.11471252221086e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2882.102264564514</v>
+        <v>7.7373585351958</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.11471252221086e-05</v>
+        <v>1.610243060642223</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.7373585351958</v>
+        <v>0.001266008963196082</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.610243060642223</v>
+        <v>7.505753014373878</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.001266008963196082</v>
+        <v>0.9415482008026594</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>7.505753014373878</v>
+        <v>0.9408030436844598</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9415482008026594</v>
+        <v>13</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9408030436844598</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>6.899775945371412</v>
       </c>
     </row>
@@ -5228,72 +5150,66 @@
         <v>1.289539942014198e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.9581014909248979</v>
+        <v>5.407238021332378e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.4170662450844422</v>
+        <v>4.376675816046466e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.407238021332378e-07</v>
+        <v>0.06989375495256699</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.376675816046466e-06</v>
+        <v>0.1467150882553659</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.06989375495256699</v>
+        <v>0.02640797351484166</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1467150882553659</v>
+        <v>1.554531744515813</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02640797351484166</v>
+        <v>1.197590806354443</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.548257357179204</v>
+        <v>27.16580754889717</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.197590806354443</v>
+        <v>2.405497143014458e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>27.16580754889717</v>
+        <v>354809994.5179483</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.405497143014458e-14</v>
+        <v>3.00004171321084e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>354809994.5179483</v>
+        <v>3028.2835336445</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.00004171321084e-07</v>
+        <v>1.776771304913101e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3028.2835336445</v>
+        <v>9.610655144468181</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>1.776771304913101e-05</v>
+        <v>1.469295426697082</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.610655144468181</v>
+        <v>0.00164110934876238</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.469295426697082</v>
+        <v>7.788662988690607</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.00164110934876238</v>
+        <v>0.9400740092181429</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>7.788662988690607</v>
+        <v>0.9713311572469563</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9400740092181429</v>
+        <v>17</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9713311572469563</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>7.729032547614789</v>
       </c>
     </row>
@@ -5308,72 +5224,66 @@
         <v>1.335283792843957e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.9813617913425562</v>
+        <v>5.160261466651313e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.2903481104743015</v>
+        <v>4.385472952140647e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.160261466651313e-07</v>
+        <v>0.06401273327464445</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.385472952140647e-06</v>
+        <v>0.1411698956335597</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.06401273327464445</v>
+        <v>0.02402483352381791</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1411698956335597</v>
+        <v>1.564324018842775</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02402483352381791</v>
+        <v>1.208467543741091</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.556941989709729</v>
+        <v>27.00241978620437</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.208467543741091</v>
+        <v>2.434695850380134e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>27.00241978620437</v>
+        <v>350566619.9805261</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.434695850380134e-14</v>
+        <v>3.03641172706138e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>350566619.9805261</v>
+        <v>2992.167064713699</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.03641172706138e-07</v>
+        <v>7.771618322116089e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2992.167064713699</v>
+        <v>9.419794981149868</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>7.771618322116089e-06</v>
+        <v>1.547809088669317</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.419794981149868</v>
+        <v>0.0006895954141010157</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.547809088669317</v>
+        <v>8.508737847279097</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0006895954141010157</v>
+        <v>0.9449842800749919</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.508737847279097</v>
+        <v>0.9272249208109946</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9449842800749919</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9272249208109946</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>9.554572968660768</v>
       </c>
     </row>
@@ -5388,72 +5298,66 @@
         <v>1.375826086521296e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.9598929569388458</v>
+        <v>4.977482801830211e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.1010659043650781</v>
+        <v>4.393745079713677e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.977482801830211e-07</v>
+        <v>0.05808735580742778</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.393745079713677e-06</v>
+        <v>0.1384298534196756</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05808735580742778</v>
+        <v>0.02253535869558587</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1384298534196756</v>
+        <v>1.568634569326054</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02253535869558587</v>
+        <v>1.20499285937227</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.563149559415568</v>
+        <v>26.96953971525916</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.20499285937227</v>
+        <v>2.440636016334704e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>26.96953971525916</v>
+        <v>349735208.4730014</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.440636016334704e-14</v>
+        <v>3.043692329973399e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>349735208.4730014</v>
+        <v>2985.257013087749</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.043692329973399e-07</v>
+        <v>4.967412264664031e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2985.257013087749</v>
+        <v>6.967296967351606</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>4.967412264664031e-06</v>
+        <v>2.003194411612419</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.967296967351606</v>
+        <v>0.0002411342213214857</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.003194411612419</v>
+        <v>8.752570032321017</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0002411342213214857</v>
+        <v>0.9448968973943049</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.752570032321017</v>
+        <v>0.9913591113681999</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9448968973943049</v>
+        <v>17</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9913591113681999</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>10.06199799849411</v>
       </c>
     </row>
@@ -5468,72 +5372,66 @@
         <v>1.408106444083181e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.9105491125752474</v>
+        <v>4.94439392179535e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.111543743997931</v>
+        <v>4.401443907115654e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.94439392179535e-07</v>
+        <v>0.0526559430922284</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.401443907115654e-06</v>
+        <v>0.1368134027200831</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.0526559430922284</v>
+        <v>0.02148941086686895</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1368134027200831</v>
+        <v>1.578984904435536</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02148941086686895</v>
+        <v>1.204999449730964</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.571852868521898</v>
+        <v>28.5390208000888</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.204999449730964</v>
+        <v>2.179575657315584e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>28.5390208000888</v>
+        <v>391663093.8414311</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.179575657315584e-14</v>
+        <v>2.717919422685938e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>391663093.8414311</v>
+        <v>3343.468602299117</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.717919422685938e-07</v>
+        <v>6.671066997917315e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3343.468602299117</v>
+        <v>5.881463542065536</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>6.671066997917315e-06</v>
+        <v>2.361003393028354</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>5.881463542065536</v>
+        <v>0.0002307629705350801</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.361003393028354</v>
+        <v>8.563919310571665</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0002307629705350801</v>
+        <v>0.946164318598591</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.563919310571665</v>
+        <v>0.9696399067328554</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.946164318598591</v>
+        <v>20</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9696399067328554</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>9.340859313761076</v>
       </c>
     </row>
@@ -5548,72 +5446,66 @@
         <v>1.434645455246051e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.8473273897269311</v>
+        <v>4.94439392179535e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.3147697529422917</v>
+        <v>4.408655369525267e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.94439392179535e-07</v>
+        <v>0.04913245219814733</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.408655369525267e-06</v>
+        <v>0.1350809622604442</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04913245219814733</v>
+        <v>0.0206608036896947</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1350809622604442</v>
+        <v>1.59922049684158</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0206608036896947</v>
+        <v>1.220809824934202</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.595346278129503</v>
+        <v>28.89368850804027</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.220809824934202</v>
+        <v>2.126395829345893e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>28.89368850804027</v>
+        <v>401454070.1309605</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.126395829345893e-14</v>
+        <v>2.651759669229546e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>401454070.1309605</v>
+        <v>3427.013715060982</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.651759669229546e-07</v>
+        <v>1.411491519252393e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3427.013715060982</v>
+        <v>6.406799355593249</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>1.411491519252393e-05</v>
+        <v>2.156082014707978</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.406799355593249</v>
+        <v>0.0005793760246285628</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.156082014707978</v>
+        <v>7.868579272964561</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0005793760246285628</v>
+        <v>0.954415131145764</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>7.868579272964561</v>
+        <v>0.961474059882964</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.954415131145764</v>
+        <v>22</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.961474059882964</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>7.417890462525905</v>
       </c>
     </row>
@@ -5628,72 +5520,66 @@
         <v>1.455483429242495e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.7807179726298773</v>
+        <v>4.94439392179535e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4957299947809988</v>
+        <v>4.415594819591097e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.94439392179535e-07</v>
+        <v>0.04701585601587388</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.415594819591097e-06</v>
+        <v>0.1340474713053217</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04701585601587388</v>
+        <v>0.02017870174062437</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1340474713053217</v>
+        <v>1.604254673267463</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02017870174062437</v>
+        <v>1.222115758859403</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.599230285206254</v>
+        <v>29.13513813988373</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.222115758859403</v>
+        <v>2.09129799779146e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>29.13513813988373</v>
+        <v>408202182.0953783</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.09129799779146e-14</v>
+        <v>2.607956899437611e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>408202182.0953783</v>
+        <v>3484.709389687832</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.607956899437611e-07</v>
+        <v>3.38523736754153e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>3484.709389687832</v>
+        <v>7.134312348735908</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>3.38523736754153e-05</v>
+        <v>1.672266836620752</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.134312348735908</v>
+        <v>0.001723032085844553</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.672266836620752</v>
+        <v>6.188327708954027</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.001723032085844553</v>
+        <v>0.9557473048714739</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>6.188327708954027</v>
+        <v>0.9158741495559918</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9557473048714739</v>
+        <v>22</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.9158741495559918</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>3.998028438760826</v>
       </c>
     </row>
@@ -5708,72 +5594,66 @@
         <v>1.467774769409695e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.7175472886821799</v>
+        <v>4.94439392179535e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.6500495309668159</v>
+        <v>4.422397873274258e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.94439392179535e-07</v>
+        <v>0.04619761946247078</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.422397873274258e-06</v>
+        <v>0.1333474814180505</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04619761946247078</v>
+        <v>0.01991449599809605</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1333474814180505</v>
+        <v>1.606067932047596</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01991449599809605</v>
+        <v>1.219686202604172</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.601198692727604</v>
+        <v>29.14427937507085</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.219686202604172</v>
+        <v>2.089986313359396e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>29.14427937507085</v>
+        <v>408465993.2756496</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.089986313359396e-14</v>
+        <v>2.60628541676816e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>408465993.2756496</v>
+        <v>3487.026538747001</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.60628541676816e-07</v>
+        <v>7.002096996872022e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3487.026538747001</v>
+        <v>7.087319463551017</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>7.002096996872022e-05</v>
+        <v>1.538100031814063</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.087319463551017</v>
+        <v>0.003517160126056681</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.538100031814063</v>
+        <v>4.039451684863611</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.003517160126056681</v>
+        <v>0.9545313025997341</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.039451684863611</v>
+        <v>0.9723616137944405</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9545313025997341</v>
+        <v>30</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.9723616137944405</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.7210661901286534</v>
       </c>
     </row>
@@ -5788,72 +5668,66 @@
         <v>1.469891334011575e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6644822651887343</v>
+        <v>4.94439392179535e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7794442053556265</v>
+        <v>4.42916104988425e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.94439392179535e-07</v>
+        <v>0.04577319443298694</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.42916104988425e-06</v>
+        <v>0.1335335831479892</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04577319443298694</v>
+        <v>0.01992589515186324</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1335335831479892</v>
+        <v>1.620210218496857</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01992589515186324</v>
+        <v>1.502992626298746</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.541956917554565</v>
+        <v>5.965379308827775</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.502992626298746</v>
+        <v>9.750235592140586e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.965379308827775</v>
+        <v>113851495.0580535</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>9.750235592140586e-15</v>
+        <v>4.921266667053032e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>113851495.0580535</v>
+        <v>126.384142321512</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.921266667053032e-07</v>
+        <v>8.388459516240403e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>126.384142321512</v>
+        <v>6.598752882568344</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>8.388459516240403e-05</v>
+        <v>1.699270309999378</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.598752882568344</v>
+        <v>0.003652632191720646</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.699270309999378</v>
+        <v>3.686807573422701</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.003652632191720646</v>
+        <v>0.9551400347301919</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.686807573422701</v>
+        <v>1.52922049786868</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9551400347301919</v>
+        <v>27</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.52922049786868</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3136485179877087</v>
       </c>
     </row>
@@ -5868,72 +5742,66 @@
         <v>1.46399792717626e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6207156734798563</v>
+        <v>4.904484081426343e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.8902492477658965</v>
+        <v>4.435784179193153e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.904484081426343e-07</v>
+        <v>0.04393305837330866</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.435784179193153e-06</v>
+        <v>0.1353354851535733</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04393305837330866</v>
+        <v>0.02024415801812808</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1353354851535733</v>
+        <v>1.631889367588579</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02024415801812808</v>
+        <v>1.699574428087751</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.536340574305236</v>
+        <v>4.020687276377243</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.699574428087751</v>
+        <v>5.936663069565228e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.020687276377243</v>
+        <v>72482622.06255606</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.936663069565228e-15</v>
+        <v>1.523210474924043e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>72482622.06255606</v>
+        <v>31.18962784311114</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.523210474924043e-06</v>
+        <v>8.212779294934774e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>31.18962784311114</v>
+        <v>6.604946797813789</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.212779294934774e-05</v>
+        <v>2.165412780919468</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.604946797813789</v>
+        <v>0.003582851429150384</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>2.165412780919468</v>
+        <v>3.751948896648369</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.003582851429150384</v>
+        <v>0.9561193476051313</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.751948896648369</v>
+        <v>1.761966870853827</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9561193476051313</v>
+        <v>27</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.761966870853827</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3502014735978418</v>
       </c>
     </row>
@@ -5948,72 +5816,66 @@
         <v>1.455022041636107e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.5744356327656857</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9771323940197263</v>
+        <v>4.441823553617011e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>0.0382949383090281</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.441823553617011e-06</v>
+        <v>0.137252504251914</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.0382949383090281</v>
+        <v>0.02029920022237635</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.137252504251914</v>
+        <v>1.64277749176494</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02029920022237635</v>
+        <v>1.949189127789599</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.55119031743482</v>
+        <v>4.116992867175314</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.949189127789599</v>
+        <v>5.167629253369563e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.116992867175314</v>
+        <v>82802428.53603038</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.167629253369563e-15</v>
+        <v>1.337770264796798e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>82802428.53603038</v>
+        <v>35.43051761344559</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.337770264796798e-06</v>
+        <v>8.17706737057064e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>35.43051761344559</v>
+        <v>7.285790629746586</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>8.17706737057064e-05</v>
+        <v>2.199670907816425</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.285790629746586</v>
+        <v>0.004340611829016429</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>2.199670907816425</v>
+        <v>3.842560979059922</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.004340611829016429</v>
+        <v>0.9582364450156319</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.842560979059922</v>
+        <v>1.738059499447124</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9582364450156319</v>
+        <v>26</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.738059499447124</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3913785656724353</v>
       </c>
     </row>
@@ -6028,72 +5890,66 @@
         <v>1.446244525480644e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.5214692247776557</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.032724482232848</v>
+        <v>4.446878956658223e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>0.03133307669736277</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.446878956658223e-06</v>
+        <v>0.1399190847439818</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03133307669736277</v>
+        <v>0.02055295837732773</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1399190847439818</v>
+        <v>1.646619221822709</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02055295837732773</v>
+        <v>1.777942242996868</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.562360097567819</v>
+        <v>4.146947835511865</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.777942242996868</v>
+        <v>5.093243415295571e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.146947835511865</v>
+        <v>86065254.87654653</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.093243415295571e-15</v>
+        <v>1.295123062951867e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>86065254.87654653</v>
+        <v>37.7268157304589</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.295123062951867e-06</v>
+        <v>8.839819717532944e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>37.7268157304589</v>
+        <v>8.621215141182807</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>8.839819717532944e-05</v>
+        <v>1.895949125183604</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.621215141182807</v>
+        <v>0.006570226989557929</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.895949125183604</v>
+        <v>3.775471700199675</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.006570226989557929</v>
+        <v>0.9566623720639675</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.775471700199675</v>
+        <v>1.760903662822213</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9566623720639675</v>
+        <v>23</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.760903662822213</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.4002208594739741</v>
       </c>
     </row>
@@ -6108,72 +5964,66 @@
         <v>1.437552682827824e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.470698843829657</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.058739119197329</v>
+        <v>4.450878657226801e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>0.02412285110414278</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.450878657226801e-06</v>
+        <v>0.1430741636659938</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.02412285110414278</v>
+        <v>0.02104596529428598</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1430741636659938</v>
+        <v>1.673240575535889</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02104596529428598</v>
+        <v>1.798450102935368</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.591690968472494</v>
+        <v>4.231198890461433</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.798450102935368</v>
+        <v>4.892430860409921e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.231198890461433</v>
+        <v>88844386.7301902</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.892430860409921e-15</v>
+        <v>1.2637853807687e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>88844386.7301902</v>
+        <v>38.61754708281209</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.2637853807687e-06</v>
+        <v>9.490473108800567e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>38.61754708281209</v>
+        <v>8.352736150857027</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>9.490473108800567e-05</v>
+        <v>1.686088609136503</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.352736150857027</v>
+        <v>0.006621332373933536</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.686088609136503</v>
+        <v>3.516060053286903</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.006621332373933536</v>
+        <v>0.957685646408343</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.516060053286903</v>
+        <v>1.758708969648431</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.957685646408343</v>
+        <v>36</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.758708969648431</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.384701772870894</v>
       </c>
     </row>
@@ -6188,72 +6038,66 @@
         <v>1.429651146547513e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.4286747485501513</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.063432815795053</v>
+        <v>4.453844491942953e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>0.01737482784555937</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.453844491942953e-06</v>
+        <v>0.1465637510135624</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.01737482784555937</v>
+        <v>0.0217777895325584</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1465637510135624</v>
+        <v>1.685746157766093</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0217777895325584</v>
+        <v>1.958044263365279</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.606434968543708</v>
+        <v>4.337061403399241</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.958044263365279</v>
+        <v>4.656508879790006e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.337061403399241</v>
+        <v>95179402.72301978</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.656508879790006e-15</v>
+        <v>1.188756721516774e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>95179402.72301978</v>
+        <v>42.18386668224448</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.188756721516774e-06</v>
+        <v>9.84166970842668e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>42.18386668224448</v>
+        <v>7.584730633441186</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>9.84166970842668e-05</v>
+        <v>1.606789002990634</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.584730633441186</v>
+        <v>0.005661729408316089</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.606789002990634</v>
+        <v>3.44121390751215</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.005661729408316089</v>
+        <v>0.9584489672273055</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.44121390751215</v>
+        <v>1.747244894671938</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9584489672273055</v>
+        <v>45</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.747244894671938</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.3454989418217809</v>
       </c>
     </row>
@@ -6268,72 +6112,66 @@
         <v>1.422880171845066e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3988637042086921</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.056149903071336</v>
+        <v>4.455899400738661e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>0.01157734317479807</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.455899400738661e-06</v>
+        <v>0.1498539270004567</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.01157734317479807</v>
+        <v>0.02258618573197879</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1498539270004567</v>
+        <v>1.67740845205686</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02258618573197879</v>
+        <v>1.811811817866884</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.59956060686135</v>
+        <v>4.42106350922036</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.811811817866884</v>
+        <v>4.481238617504004e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.42106350922036</v>
+        <v>101449291.8829292</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.481238617504004e-15</v>
+        <v>1.113970551295208e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>101449291.8829292</v>
+        <v>46.12072332984333</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.113970551295208e-06</v>
+        <v>9.957328316833037e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>46.12072332984333</v>
+        <v>7.286432704035933</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>9.957328316833037e-05</v>
+        <v>1.597504055623144</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>7.286432704035933</v>
+        <v>0.005286554861684152</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.597504055623144</v>
+        <v>3.451728728483484</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.005286554861684152</v>
+        <v>0.9588657163793186</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.451728728483484</v>
+        <v>1.745791828601097</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9588657163793186</v>
+        <v>50</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.745791828601097</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.3412668247333956</v>
       </c>
     </row>
@@ -6348,72 +6186,66 @@
         <v>1.417532405148442e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3816177549780199</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.044710010400614</v>
+        <v>4.457184746215785e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>0.006767826573911115</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.457184746215785e-06</v>
+        <v>0.1544338489694391</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.006767826573911115</v>
+        <v>0.02389003204759629</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1544338489694391</v>
+        <v>1.684681548483353</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02389003204759629</v>
+        <v>1.949315245484992</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.606783013107251</v>
+        <v>4.464839384863403</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.949315245484992</v>
+        <v>4.393796071572565e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.464839384863403</v>
+        <v>103283253.3694234</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.393796071572565e-15</v>
+        <v>1.095287539403805e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>103283253.3694234</v>
+        <v>46.87051390204795</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.095287539403805e-06</v>
+        <v>9.22025006437892e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>46.87051390204795</v>
+        <v>7.141807920815143</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>9.22025006437892e-05</v>
+        <v>1.712619191944544</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.141807920815143</v>
+        <v>0.004702827305222495</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.712619191944544</v>
+        <v>3.584533319194603</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.004702827305222495</v>
+        <v>0.9584279060232797</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.584533319194603</v>
+        <v>1.721841230471842</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9584279060232797</v>
+        <v>50</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.721841230471842</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.3854039673685287</v>
       </c>
     </row>
@@ -6428,72 +6260,66 @@
         <v>1.413841672658566e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3753664708784805</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.034870417063176</v>
+        <v>4.457838027182486e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>0.002480954097676558</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.457838027182486e-06</v>
+        <v>0.1592768987267586</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.002480954097676558</v>
+        <v>0.02537057976163267</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1592768987267586</v>
+        <v>1.722255244279559</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02537057976163267</v>
+        <v>1.820740474898207</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.644537522665851</v>
+        <v>4.486994957019352</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.820740474898207</v>
+        <v>4.350512435178522e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.486994957019352</v>
+        <v>99112420.31576617</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.350512435178522e-15</v>
+        <v>1.159697943234233e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>99112420.31576617</v>
+        <v>42.73626638476326</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.159697943234233e-06</v>
+        <v>7.954867645943971e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>42.73626638476326</v>
+        <v>6.929768618087687</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>7.954867645943971e-05</v>
+        <v>2.292719162951059</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>6.929768618087687</v>
+        <v>0.003820062127464938</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>2.292719162951059</v>
+        <v>3.880471384232853</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.003820062127464938</v>
+        <v>0.9592134321122969</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.880471384232853</v>
+        <v>1.708024808236477</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9592134321122969</v>
+        <v>49</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.708024808236477</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.4186491429985537</v>
       </c>
     </row>
@@ -6508,72 +6334,66 @@
         <v>1.413312594272234e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.3748230763033257</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.033420742525091</v>
+        <v>4.457920476132436e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>-0.001192894250213485</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.457920476132436e-06</v>
+        <v>0.1621515558891889</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.001192894250213485</v>
+        <v>0.02629218067778375</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1621515558891889</v>
+        <v>1.733794601152672</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02629218067778375</v>
+        <v>1.751085281579795</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.65981665829356</v>
+        <v>4.174709352821307</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.751085281579795</v>
+        <v>4.227427575078228e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.174709352821307</v>
+        <v>101619676.4674334</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.227427575078228e-15</v>
+        <v>1.135163220653186e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>101619676.4674334</v>
+        <v>43.65477877299748</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.135163220653186e-06</v>
+        <v>7.183105618374809e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>43.65477877299748</v>
+        <v>7.652478346108393</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>7.183105618374809e-05</v>
+        <v>2.006212140576003</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.652478346108393</v>
+        <v>0.004206457166657959</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>2.006212140576003</v>
+        <v>3.895255343686376</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.004206457166657959</v>
+        <v>0.958655955488953</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.895255343686376</v>
+        <v>1.696369038359651</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.958655955488953</v>
+        <v>49</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.696369038359651</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.5092861395754689</v>
       </c>
     </row>
@@ -6588,72 +6408,66 @@
         <v>1.416080149297247e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.3748179849996407</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.039813753268863</v>
+        <v>4.457588146271017e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>-0.003167277645554166</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.457588146271017e-06</v>
+        <v>0.1628137677906416</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.003167277645554166</v>
+        <v>0.02651783496997488</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1628137677906416</v>
+        <v>1.742149113992416</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02651783496997488</v>
+        <v>1.888172647635249</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.673671383317641</v>
+        <v>3.81823454197362</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.888172647635249</v>
+        <v>5.188579620879214e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.81823454197362</v>
+        <v>81712947.04642455</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.188579620879214e-15</v>
+        <v>1.412490194699802e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>81712947.04642455</v>
+        <v>34.64417578140418</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.412490194699802e-06</v>
+        <v>7.349884606843636e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>34.64417578140418</v>
+        <v>7.538466053381688</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>7.349884606843636e-05</v>
+        <v>2.207836117463081</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.538466053381688</v>
+        <v>0.004176827001026373</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>2.207836117463081</v>
+        <v>3.90729635105753</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.004176827001026373</v>
+        <v>0.9594971988975046</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.90729635105753</v>
+        <v>1.708475281101158</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9594971988975046</v>
+        <v>49</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.708475281101158</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.4662006003180074</v>
       </c>
     </row>
@@ -6668,72 +6482,66 @@
         <v>1.420628829214858e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.3738141297968875</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.049480260130502</v>
+        <v>4.457066990056993e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>-0.004204996506977978</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.457066990056993e-06</v>
+        <v>0.1624397491161094</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.004204996506977978</v>
+        <v>0.02640421123979881</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1624397491161094</v>
+        <v>1.740072653288234</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02640421123979881</v>
+        <v>1.890668098451265</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.671371974796912</v>
+        <v>3.833185365271751</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.890668098451265</v>
+        <v>5.148183841841629e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.833185365271751</v>
+        <v>81443839.68593846</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.148183841841629e-15</v>
+        <v>1.411850221958047e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>81443839.68593846</v>
+        <v>34.14841321045703</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.411850221958047e-06</v>
+        <v>7.860560873136514e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>34.14841321045703</v>
+        <v>6.614866398059651</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>7.860560873136514e-05</v>
+        <v>1.610307816134977</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.614866398059651</v>
+        <v>0.00343950297489985</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.610307816134977</v>
+        <v>3.713930154192254</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.00343950297489985</v>
+        <v>0.9590732840361458</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.713930154192254</v>
+        <v>1.683396932786329</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9590732840361458</v>
+        <v>47</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.683396932786329</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.3767144943112955</v>
       </c>
     </row>
@@ -6748,72 +6556,66 @@
         <v>1.426176354709374e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.3719556886483186</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.060530852599693</v>
+        <v>4.456448735912262e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>-0.004118384340344316</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.456448735912262e-06</v>
+        <v>0.1616804533950335</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.004118384340344316</v>
+        <v>0.02615593048017507</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1616804533950335</v>
+        <v>1.747726787354962</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02615593048017507</v>
+        <v>1.858266045602972</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.682207054932046</v>
+        <v>3.87488339398711</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.858266045602972</v>
+        <v>5.037979710539544e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.87488339398711</v>
+        <v>82749902.40689598</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.037979710539544e-15</v>
+        <v>1.392164654591215e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>82749902.40689598</v>
+        <v>34.49779956997052</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.392164654591215e-06</v>
+        <v>0.0001056751591122936</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>34.49779956997052</v>
+        <v>8.311050735689179</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001056751591122936</v>
+        <v>1.403438336028545</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.311050735689179</v>
+        <v>0.007299359901152773</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.403438336028545</v>
+        <v>3.314403476392505</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007299359901152773</v>
+        <v>0.9579866252529744</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.314403476392505</v>
+        <v>1.682260264806948</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9579866252529744</v>
+        <v>44</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.682260264806948</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.3167568582091695</v>
       </c>
     </row>
@@ -6828,72 +6630,66 @@
         <v>1.430526665240251e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.3689129688295109</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.067662722710071</v>
+        <v>4.456006851505713e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>-0.001891439992044224</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.456006851505713e-06</v>
+        <v>0.1593879655250366</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.001891439992044224</v>
+        <v>0.02540456065838222</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1593879655250366</v>
+        <v>1.752198672761602</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02540456065838222</v>
+        <v>1.880458953126803</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.690138110114054</v>
+        <v>3.974828490802635</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.880458953126803</v>
+        <v>4.787809936850266e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.974828490802635</v>
+        <v>88510546.29647042</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>4.787809936850266e-15</v>
+        <v>1.303402657660422e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>88510546.29647042</v>
+        <v>37.50826228877438</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.303402657660422e-06</v>
+        <v>0.0001330188200209324</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>37.50826228877438</v>
+        <v>9.135761967359164</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001330188200209324</v>
+        <v>1.374079110919481</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.135761967359164</v>
+        <v>0.01110203627367315</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.374079110919481</v>
+        <v>3.067654635808551</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01110203627367315</v>
+        <v>0.9586811542079816</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.067654635808551</v>
+        <v>1.696709752012168</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9586811542079816</v>
+        <v>54</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.696709752012168</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2740761284705815</v>
       </c>
     </row>
@@ -6908,72 +6704,66 @@
         <v>1.431835526744496e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3673873439850264</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.069078835350529</v>
+        <v>4.455890203939002e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>-4.667251284973833e-06</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>4.455890203939002e-06</v>
+        <v>0.1575697786010932</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-4.667251284973833e-06</v>
+        <v>0.02482604226848232</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1575697786010932</v>
+        <v>1.752385610542195</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02482604226848232</v>
+        <v>1.878009691404031</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.693043623335483</v>
+        <v>3.958185419164062</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.878009691404031</v>
+        <v>4.828157409030421e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.958185419164062</v>
+        <v>87770678.86208852</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>4.828157409030421e-15</v>
+        <v>1.314882575075999e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>87770678.86208852</v>
+        <v>37.19463793457759</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.314882575075999e-06</v>
+        <v>0.0001281626190565644</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>37.19463793457759</v>
+        <v>8.347226990245645</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001281626190565644</v>
+        <v>1.446036146358106</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.347226990245645</v>
+        <v>0.008929884076268867</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.446036146358106</v>
+        <v>3.195453498904063</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.008929884076268867</v>
+        <v>0.9587402485715306</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.195453498904063</v>
+        <v>1.677039712064167</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9587402485715306</v>
+        <v>46</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.677039712064167</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2676448703192386</v>
       </c>
     </row>
@@ -6988,72 +6778,66 @@
         <v>1.431500929202827e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.3679562433356647</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.069001947633506</v>
+        <v>4.455918858196428e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>-3.945379691880132e-05</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.455918858196428e-06</v>
+        <v>0.1575469199080893</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-3.945379691880132e-05</v>
+        <v>0.02482021103873782</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1575469199080893</v>
+        <v>1.760077925681928</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02482021103873782</v>
+        <v>2.000913180189039</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.704769173418663</v>
+        <v>3.977863573238855</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.000913180189039</v>
+        <v>4.780506592277608e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.977863573238855</v>
+        <v>87453641.25452521</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>4.780506592277608e-15</v>
+        <v>1.323077989901183e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>87453641.25452521</v>
+        <v>36.56198067060966</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.323077989901183e-06</v>
+        <v>0.0001056248590591224</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>36.56198067060966</v>
+        <v>7.347390343980276</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001056248590591224</v>
+        <v>1.413843312234399</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.347390343980276</v>
+        <v>0.005702067692984539</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.413843312234399</v>
+        <v>3.440032337074798</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.005702067692984539</v>
+        <v>0.9579129611789468</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.440032337074798</v>
+        <v>1.642567899852767</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9579129611789468</v>
+        <v>43</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.642567899852767</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2825691695792141</v>
       </c>
     </row>
@@ -7068,72 +6852,66 @@
         <v>1.433647648422832e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.3637368625147309</v>
+        <v>4.654543862180427e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.068366372358428</v>
+        <v>4.455757992416064e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.654543862180427e-07</v>
+        <v>-0.002456589853717362</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.455757992416064e-06</v>
+        <v>0.1581346147987023</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.002456589853717362</v>
+        <v>0.02501127558900285</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1581346147987023</v>
+        <v>1.783467287602603</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02501127558900285</v>
+        <v>1.749312990061238</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.735640395987859</v>
+        <v>4.062881891804812</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.749312990061238</v>
+        <v>4.582529768537838e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.062881891804812</v>
+        <v>94941055.49515688</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>4.582529768537838e-15</v>
+        <v>1.234730285123281e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>94941055.49515688</v>
+        <v>41.30602524270016</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.234730285123281e-06</v>
+        <v>9.806008922637194e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>41.30602524270016</v>
+        <v>7.910246789155478</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>9.806008922637194e-05</v>
+        <v>1.215763401753329</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.910246789155478</v>
+        <v>0.006135816321332612</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.215763401753329</v>
+        <v>3.424869184313734</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.006135816321332612</v>
+        <v>0.95874523600651</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.424869184313734</v>
+        <v>1.627937777708786</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.95874523600651</v>
+        <v>42</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.627937777708786</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2863416910331823</v>
       </c>
     </row>
@@ -7148,72 +6926,66 @@
         <v>1.44059283080599e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.3490492649997826</v>
+        <v>4.815673502367653e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.063746216176721</v>
+        <v>4.455255801529551e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.815673502367653e-07</v>
+        <v>-0.004282102380254922</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.455255801529551e-06</v>
+        <v>0.1582868578048363</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.004282102380254922</v>
+        <v>0.02507110608299131</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1582868578048363</v>
+        <v>1.77339482499976</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02507110608299131</v>
+        <v>1.775822264736811</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.716550406070499</v>
+        <v>4.201825963511812</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.775822264736811</v>
+        <v>4.284474569039231e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.201825963511812</v>
+        <v>101907398.5645559</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>4.284474569039231e-15</v>
+        <v>1.147341888673943e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>101907398.5645559</v>
+        <v>44.49477346274014</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.147341888673943e-06</v>
+        <v>0.0001099766408280403</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>44.49477346274014</v>
+        <v>9.015724327317221</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001099766408280403</v>
+        <v>1.168780594010292</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.015724327317221</v>
+        <v>0.008939262655844571</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.168780594010292</v>
+        <v>3.222288861754618</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008939262655844571</v>
+        <v>0.9577955925999666</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.222288861754618</v>
+        <v>1.652368786678925</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9577955925999666</v>
+        <v>50</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.652368786678925</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2743917598985971</v>
       </c>
     </row>
@@ -7228,72 +7000,66 @@
         <v>1.45106300359761e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.3240973754869244</v>
+        <v>5.077473337590049e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.049135970729639</v>
+        <v>4.454551440020834e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>5.077473337590049e-07</v>
+        <v>-0.005590880335274993</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>4.454551440020834e-06</v>
+        <v>0.1583042972508998</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.005590880335274993</v>
+        <v>0.02508832450543978</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1583042972508998</v>
+        <v>1.773874734404569</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.02508832450543978</v>
+        <v>1.90313913362119</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.713381904200518</v>
+        <v>4.189661116153983</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.90313913362119</v>
+        <v>4.309390973449014e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.189661116153983</v>
+        <v>98138285.23165347</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>4.309390973449014e-15</v>
+        <v>1.187436658350807e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>98138285.23165347</v>
+        <v>41.50427464194241</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.187436658350807e-06</v>
+        <v>0.0001280245636899661</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>41.50427464194241</v>
+        <v>8.889250274757964</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001280245636899661</v>
+        <v>1.245905218366841</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>8.889250274757964</v>
+        <v>0.01011634360983119</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.245905218366841</v>
+        <v>3.123294006298808</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01011634360983119</v>
+        <v>0.9578996171659488</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.123294006298808</v>
+        <v>1.645594408460597</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9578996171659488</v>
+        <v>50</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.645594408460597</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2603334449174516</v>
       </c>
     </row>
@@ -7308,72 +7074,66 @@
         <v>1.466978004746402e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.281820730833991</v>
+        <v>5.392385636195869e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.012609046459365</v>
+        <v>4.453560919778783e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>5.392385636195869e-07</v>
+        <v>-0.008397283628729022</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>4.453560919778783e-06</v>
+        <v>0.158766310373659</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.008397283628729022</v>
+        <v>0.02527355797862894</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.158766310373659</v>
+        <v>1.768874009660577</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.02527355797862894</v>
+        <v>1.921001273356404</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.707417612598243</v>
+        <v>4.06149143596514</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.921001273356404</v>
+        <v>4.585667973344969e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.06149143596514</v>
+        <v>92114731.29408011</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>4.585667973344969e-15</v>
+        <v>1.263208616787291e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>92114731.29408011</v>
+        <v>38.90996009900461</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.263208616787291e-06</v>
+        <v>0.0001369341290948299</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>38.90996009900461</v>
+        <v>8.474693941418248</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001369341290948299</v>
+        <v>1.3675485922219</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>8.474693941418248</v>
+        <v>0.009834669046676129</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.3675485922219</v>
+        <v>3.110587222473973</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.009834669046676129</v>
+        <v>0.9557813451595458</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.110587222473973</v>
+        <v>1.670597105085391</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9557813451595458</v>
+        <v>36</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.670597105085391</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2618874698662472</v>
       </c>
     </row>
@@ -7388,72 +7148,66 @@
         <v>1.493328622359822e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.208807984947352</v>
+        <v>5.768446694125748e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.9350751138254827</v>
+        <v>4.452005467260058e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>5.768446694125748e-07</v>
+        <v>-0.01281264497434749</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4.452005467260058e-06</v>
+        <v>0.1589838841452168</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.01281264497434749</v>
+        <v>0.02543559720912248</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1589838841452168</v>
+        <v>1.761955288457419</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.02543559720912248</v>
+        <v>1.987747457148539</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.695927964561673</v>
+        <v>4.011449022644211</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.987747457148539</v>
+        <v>4.700793080159631e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.011449022644211</v>
+        <v>87267938.80195959</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>4.700793080159631e-15</v>
+        <v>1.326763513442855e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>87267938.80195959</v>
+        <v>35.79979762602341</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.326763513442855e-06</v>
+        <v>0.0001253663324071319</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>35.79979762602341</v>
+        <v>8.475474180645216</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001253663324071319</v>
+        <v>1.339987992500404</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>8.475474180645216</v>
+        <v>0.00900552282187648</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.339987992500404</v>
+        <v>3.284290493498202</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.00900552282187648</v>
+        <v>0.9538668682656</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.284290493498202</v>
+        <v>1.679672631584274</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9538668682656</v>
+        <v>32</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.679672631584274</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2853895458744566</v>
       </c>
     </row>
@@ -7468,72 +7222,66 @@
         <v>1.533243637161743e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.1008775383321981</v>
+        <v>6.125759894141795e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.8074929429267632</v>
+        <v>4.449716664370258e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>6.125759894141795e-07</v>
+        <v>-0.01727383423797673</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>4.449716664370258e-06</v>
+        <v>0.1571322377135316</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.01727383423797673</v>
+        <v>0.02498593616775966</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1571322377135316</v>
+        <v>1.783928165013388</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.02498593616775966</v>
+        <v>1.752420091963602</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.720598314420588</v>
+        <v>3.944701658636202</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.752420091963602</v>
+        <v>4.8612209910856e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.944701658636202</v>
+        <v>82404240.02541514</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>4.8612209910856e-15</v>
+        <v>1.413978884324943e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>82404240.02541514</v>
+        <v>33.00992073207827</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.413978884324943e-06</v>
+        <v>0.0001082376458155122</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>33.00992073207827</v>
+        <v>9.09981662245692</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001082376458155122</v>
+        <v>1.268640341022767</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.09981662245692</v>
+        <v>0.008962798213587548</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.268640341022767</v>
+        <v>3.491236637825165</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.008962798213587548</v>
+        <v>0.9527130821543665</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.491236637825165</v>
+        <v>1.653242508441352</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9527130821543665</v>
+        <v>27</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.653242508441352</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.3242523438935352</v>
       </c>
     </row>
@@ -7548,72 +7296,66 @@
         <v>1.585108666541769e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.02586482426284121</v>
+        <v>6.391471116432824e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.6580416429816536</v>
+        <v>4.446742731017152e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>6.391471116432824e-07</v>
+        <v>-0.02083336407666684</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>4.446742731017152e-06</v>
+        <v>0.1526590078104317</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.02083336407666684</v>
+        <v>0.02373667274698457</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1526590078104317</v>
+        <v>1.795697501750452</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.02373667274698457</v>
+        <v>1.870626280191999</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.738414629497322</v>
+        <v>3.658208483004384</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.870626280191999</v>
+        <v>5.059123552187157e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.658208483004384</v>
+        <v>79207877.9481523</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>5.059123552187157e-15</v>
+        <v>1.4772955920153e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>79207877.9481523</v>
+        <v>31.74037418563648</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.4772955920153e-06</v>
+        <v>0.0001094293887710481</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>31.74037418563648</v>
+        <v>10.34541217567746</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001094293887710481</v>
+        <v>1.271512357030363</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>10.34541217567746</v>
+        <v>0.01171195971571475</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.271512357030363</v>
+        <v>3.584868850542281</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01171195971571475</v>
+        <v>0.953819468629644</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.584868850542281</v>
+        <v>1.6437688873145</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.953819468629644</v>
+        <v>27</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.6437688873145</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.3472794049788296</v>
       </c>
     </row>
@@ -7628,72 +7370,66 @@
         <v>1.64598050017778e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1456303279077114</v>
+        <v>6.528051358988803e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.5438833401016283</v>
+        <v>4.44306377773668e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>6.528051358988803e-07</v>
+        <v>-0.02490143474812768</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>4.44306377773668e-06</v>
+        <v>0.1440511999391219</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.02490143474812768</v>
+        <v>0.02136439458717049</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1440511999391219</v>
+        <v>1.81192846051072</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.02136439458717049</v>
+        <v>1.892984085576036</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.762425611278672</v>
+        <v>3.351165802359936</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.892984085576036</v>
+        <v>6.028654004829118e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.351165802359936</v>
+        <v>66922516.08308798</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>6.028654004829118e-15</v>
+        <v>1.752703320393187e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>66922516.08308798</v>
+        <v>27.00006944296968</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.752703320393187e-06</v>
+        <v>0.0001371836541097735</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>27.00006944296968</v>
+        <v>10.51945675360745</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001371836541097735</v>
+        <v>1.361608467998435</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>10.51945675360745</v>
+        <v>0.015180601918265</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.361608467998435</v>
+        <v>3.426430980301233</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.015180601918265</v>
+        <v>0.9547363181656148</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.426430980301233</v>
+        <v>1.6261479492834</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9547363181656148</v>
+        <v>24</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.6261479492834</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.3176986307311425</v>
       </c>
     </row>
@@ -8070,7 +7806,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.354497211977466</v>
+        <v>1.360460985581313</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.40629919107909</v>
@@ -8159,7 +7895,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.374818040481495</v>
+        <v>1.379478576921954</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.038610270518096</v>
@@ -8248,7 +7984,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.394188152442598</v>
+        <v>1.402257712218228</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.258363357601266</v>
@@ -8337,7 +8073,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.404948045437208</v>
+        <v>1.408646589974256</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.269360599549707</v>
@@ -8426,7 +8162,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.409808373673971</v>
+        <v>1.417252074635842</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.281134571502748</v>
@@ -8515,7 +8251,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.392530722764773</v>
+        <v>1.400711109511709</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.541866652438029</v>
@@ -8604,7 +8340,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.392218716992451</v>
+        <v>1.397297122593247</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.413495348594064</v>
@@ -8693,7 +8429,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.372905978732243</v>
+        <v>1.379340717734905</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.374320372447013</v>
@@ -8782,7 +8518,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.370287107487645</v>
+        <v>1.368879722502014</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.427396746949013</v>
@@ -8871,7 +8607,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.339734747301519</v>
+        <v>1.346288272409625</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.413258415463438</v>
@@ -8960,7 +8696,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.374135050930684</v>
+        <v>1.380997088995306</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.429612293363336</v>
@@ -9049,7 +8785,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.395933066893876</v>
+        <v>1.40773888248675</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.431207960759441</v>
@@ -9138,7 +8874,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.371050375455489</v>
+        <v>1.377087042833463</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.390434575549762</v>
@@ -9227,7 +8963,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.351662441073691</v>
+        <v>1.356095146980492</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.446312525963668</v>
@@ -9316,7 +9052,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.371974030687577</v>
+        <v>1.378014853100755</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.36536767249595</v>
@@ -9405,7 +9141,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.378274613670441</v>
+        <v>1.385932251867573</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.395947449075981</v>
@@ -9494,7 +9230,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.36605122043653</v>
+        <v>1.374960182602929</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.42234504323381</v>
@@ -9583,7 +9319,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.355716599592774</v>
+        <v>1.35703798218558</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.172850807755066</v>
@@ -9672,7 +9408,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.324732735781657</v>
+        <v>1.335614142505947</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.406588708620917</v>
@@ -9761,7 +9497,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.353629451089402</v>
+        <v>1.364370099991637</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.35346741616459</v>
@@ -9850,7 +9586,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.37286071072278</v>
+        <v>1.387059995066507</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.324442632633504</v>
@@ -9939,7 +9675,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.37096120791372</v>
+        <v>1.383666747944803</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.351952897312783</v>
@@ -10028,7 +9764,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.384795435013472</v>
+        <v>1.394674020729314</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.471675574312241</v>
@@ -10117,7 +9853,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.409505396163391</v>
+        <v>1.419375315661802</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.221401273244013</v>
@@ -10206,7 +9942,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.426605067845279</v>
+        <v>1.434761708090986</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.318390475528016</v>
@@ -10295,7 +10031,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.40924966576006</v>
+        <v>1.415988985153298</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.473375225586124</v>
@@ -10384,7 +10120,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.414061729609443</v>
+        <v>1.419013020198134</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.38548534383865</v>
@@ -10473,7 +10209,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.438096185922751</v>
+        <v>1.447353317421668</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.331278678098467</v>
@@ -10562,7 +10298,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.48463510824117</v>
+        <v>1.490919966012928</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.221353376515183</v>
@@ -10651,7 +10387,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485499858799367</v>
+        <v>1.492350039687752</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.373570381061459</v>
@@ -10740,7 +10476,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.474153798441658</v>
+        <v>1.473682575271651</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.29853185390282</v>
@@ -10829,7 +10565,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.483973072288433</v>
+        <v>1.481126105884144</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.337675032222037</v>
@@ -10918,7 +10654,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.488246857116346</v>
+        <v>1.492653935494368</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.128767015958029</v>
@@ -11007,7 +10743,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.529376366930963</v>
+        <v>1.528671249088157</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.299049554271499</v>
@@ -11096,7 +10832,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.538207040105057</v>
+        <v>1.541744620690549</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.350141294829736</v>
@@ -11185,7 +10921,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.507027270780508</v>
+        <v>1.508189701963651</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.462962813552543</v>
@@ -11274,7 +11010,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.539337166373982</v>
+        <v>1.545186234464953</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.376731349044126</v>
@@ -11363,7 +11099,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.537465125739687</v>
+        <v>1.544502810448823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.330127732687924</v>
@@ -11452,7 +11188,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.56081007136858</v>
+        <v>1.565490975156483</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.445973395598336</v>
@@ -11541,7 +11277,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.576397684106726</v>
+        <v>1.584581381215513</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.39758174343432</v>
@@ -11630,7 +11366,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.615735052242497</v>
+        <v>1.62469122572134</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.584934379573678</v>
@@ -11719,7 +11455,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.591264042604439</v>
+        <v>1.60041998574126</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.491319826986282</v>
@@ -11808,7 +11544,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.591558841008896</v>
+        <v>1.602697629999278</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.432684456698538</v>
@@ -11897,7 +11633,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.529690822153203</v>
+        <v>1.542710600114566</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.392454343413745</v>
@@ -11986,7 +11722,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.529805754578703</v>
+        <v>1.544937496434304</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.450157014887996</v>
@@ -12075,7 +11811,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.560686291290942</v>
+        <v>1.576306231868287</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.304892215323239</v>
@@ -12164,7 +11900,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.55635964074151</v>
+        <v>1.573277577279969</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.215974893853912</v>
@@ -12253,7 +11989,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.517902554884663</v>
+        <v>1.526815289531251</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.468137837301383</v>
@@ -12342,7 +12078,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.488475596772056</v>
+        <v>1.50290567929283</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.556591474667241</v>
@@ -12431,7 +12167,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.463239938037474</v>
+        <v>1.482629122325206</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.15507055008531</v>
@@ -12520,7 +12256,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.478532262206981</v>
+        <v>1.498846230354443</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.618958520562072</v>
@@ -12609,7 +12345,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.465659119688908</v>
+        <v>1.476786944775893</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.50719414394343</v>
@@ -12698,7 +12434,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.435819859215008</v>
+        <v>1.443410938876584</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.556359000519526</v>
@@ -12787,7 +12523,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.392296189917838</v>
+        <v>1.400232181592352</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.497670515043679</v>
@@ -12876,7 +12612,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.356204839051909</v>
+        <v>1.361669408606289</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.689930665204904</v>
@@ -12965,7 +12701,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.329238839382648</v>
+        <v>1.33177542370875</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.278279018785709</v>
@@ -13054,7 +12790,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.324506319920397</v>
+        <v>1.329541448758666</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.276061846100191</v>
@@ -13143,7 +12879,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.319201551929807</v>
+        <v>1.31666399750867</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.387394389384503</v>
@@ -13232,7 +12968,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.324087436757095</v>
+        <v>1.325252258327719</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.328760108898689</v>
@@ -13321,7 +13057,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.306537738686809</v>
+        <v>1.309027984554742</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.342029245231611</v>
@@ -13410,7 +13146,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.304794653247233</v>
+        <v>1.301145740188825</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.32460321643391</v>
@@ -13499,7 +13235,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.290796604941955</v>
+        <v>1.293001003052451</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.307510634356624</v>
@@ -13588,7 +13324,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.316607268984555</v>
+        <v>1.319252427751155</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.087030431797694</v>
@@ -13677,7 +13413,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.334170399670328</v>
+        <v>1.334394756167516</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.153975447018253</v>
@@ -13766,7 +13502,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.33813678311881</v>
+        <v>1.343045613535563</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.264355761458244</v>
@@ -13855,7 +13591,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.311209204121865</v>
+        <v>1.313299806038892</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.28611418844009</v>
@@ -13944,7 +13680,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.322295023948184</v>
+        <v>1.332808845267979</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.126140790733822</v>
@@ -14033,7 +13769,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.340799305852235</v>
+        <v>1.356796907719384</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.265790780986468</v>
@@ -14122,7 +13858,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.370468719578857</v>
+        <v>1.387935379597285</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.310761234478584</v>
@@ -14211,7 +13947,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.395230883596592</v>
+        <v>1.413268629887791</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.259807207919354</v>
@@ -14300,7 +14036,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.431606717941914</v>
+        <v>1.45393448647808</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.292762083571275</v>
@@ -14389,7 +14125,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.434751546687729</v>
+        <v>1.453954522131478</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.218071602588995</v>
@@ -14478,7 +14214,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.419221894233993</v>
+        <v>1.440240120751072</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.198863128817346</v>
@@ -14567,7 +14303,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.435808686476075</v>
+        <v>1.456348351539527</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.27643721941682</v>
@@ -14656,7 +14392,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.439614685100455</v>
+        <v>1.458617269662596</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.484343724603495</v>
@@ -14745,7 +14481,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.446334809963298</v>
+        <v>1.456031780577712</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.209907548163172</v>
@@ -14834,7 +14570,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.442453624702449</v>
+        <v>1.457780038299937</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.411693490123261</v>
@@ -14923,7 +14659,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.436887948735476</v>
+        <v>1.452663558674524</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.428801333942332</v>
@@ -15012,7 +14748,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.406883119368576</v>
+        <v>1.420933632630554</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.341994722099884</v>
@@ -15101,7 +14837,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.406404139194957</v>
+        <v>1.419420896650603</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.227256785031955</v>
@@ -15190,7 +14926,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.448886457840641</v>
+        <v>1.462226594125102</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.182736213902285</v>
@@ -15279,7 +15015,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.453744580589199</v>
+        <v>1.465075059338701</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.475362898567118</v>
@@ -15368,7 +15104,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.448953351195683</v>
+        <v>1.459353403186721</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.411124561408367</v>
@@ -15457,7 +15193,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.459954596479809</v>
+        <v>1.462996079820433</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.37171475882308</v>
@@ -15546,7 +15282,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.444809687281726</v>
+        <v>1.457521962617633</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.450192691390609</v>
@@ -15635,7 +15371,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.426843142370093</v>
+        <v>1.437463383805563</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.488673012766426</v>
@@ -15724,7 +15460,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.444803947081867</v>
+        <v>1.456929985974866</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.389658009327922</v>
@@ -16010,7 +15746,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.413764998128517</v>
+        <v>1.427046493908693</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.720638075112826</v>
@@ -16099,7 +15835,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.431068809098326</v>
+        <v>1.440824187866277</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.374618497833745</v>
@@ -16188,7 +15924,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.469173984863476</v>
+        <v>1.473689944501926</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.448201564565501</v>
@@ -16277,7 +16013,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.457734492628114</v>
+        <v>1.462761037892201</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.651105996486397</v>
@@ -16366,7 +16102,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.46349387645896</v>
+        <v>1.467025347953173</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.578489573673324</v>
@@ -16455,7 +16191,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.424275605035924</v>
+        <v>1.425767048295609</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.360298396709436</v>
@@ -16544,7 +16280,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.406360676169657</v>
+        <v>1.405274425141076</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.368610828296166</v>
@@ -16633,7 +16369,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.402302038684052</v>
+        <v>1.404584243373409</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.341376389233568</v>
@@ -16722,7 +16458,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.40282214550218</v>
+        <v>1.399886047605465</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.350440111273925</v>
@@ -16811,7 +16547,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.376322275652652</v>
+        <v>1.372762563292527</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.316915749255963</v>
@@ -16900,7 +16636,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.399285467837747</v>
+        <v>1.395561941622384</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.293775212318224</v>
@@ -16989,7 +16725,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.42135305388368</v>
+        <v>1.416537191334752</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.342285256185125</v>
@@ -17078,7 +16814,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.410206484732012</v>
+        <v>1.40434161430562</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.274091042382381</v>
@@ -17167,7 +16903,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.41793612791367</v>
+        <v>1.413018699688663</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.405120151754544</v>
@@ -17256,7 +16992,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.430378899645135</v>
+        <v>1.424389433229208</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.391425857355086</v>
@@ -17345,7 +17081,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.435366291786707</v>
+        <v>1.430703956783382</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.403340467277637</v>
@@ -17434,7 +17170,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.416618246729381</v>
+        <v>1.413236658941471</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.328478025183339</v>
@@ -17523,7 +17259,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.409411566037235</v>
+        <v>1.402555388222358</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.226303408049079</v>
@@ -17612,7 +17348,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.39278521268551</v>
+        <v>1.390892718132099</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.385355137323861</v>
@@ -17701,7 +17437,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.406028759079268</v>
+        <v>1.404517626061716</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.288500868955353</v>
@@ -17790,7 +17526,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.424620273570513</v>
+        <v>1.424410340228072</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.352647033880667</v>
@@ -17879,7 +17615,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.423784093959219</v>
+        <v>1.424733402143133</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.333082732424857</v>
@@ -17968,7 +17704,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.422090458381397</v>
+        <v>1.419351339876251</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.382863057743235</v>
@@ -18057,7 +17793,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.428243459566937</v>
+        <v>1.431529204430028</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.340212398755503</v>
@@ -18146,7 +17882,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.442738334787701</v>
+        <v>1.4472342831087</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.395875220895575</v>
@@ -18235,7 +17971,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.425109839409781</v>
+        <v>1.428411709701944</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.523527949126798</v>
@@ -18324,7 +18060,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.417325462023385</v>
+        <v>1.417644333856901</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.445203495169374</v>
@@ -18413,7 +18149,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.425492536677788</v>
+        <v>1.429024290434325</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.380835670120935</v>
@@ -18502,7 +18238,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.442289447752632</v>
+        <v>1.44070044012349</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.325460098092869</v>
@@ -18591,7 +18327,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.439819011563447</v>
+        <v>1.440295893773942</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.377920697615003</v>
@@ -18680,7 +18416,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.441162857374529</v>
+        <v>1.440961856945476</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.183904967705548</v>
@@ -18769,7 +18505,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.446717982240319</v>
+        <v>1.441787397671094</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.358707128960346</v>
@@ -18858,7 +18594,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.451046897695929</v>
+        <v>1.449380935583664</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.160176723620499</v>
@@ -18947,7 +18683,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.461146898216165</v>
+        <v>1.45921553571544</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.415898376477864</v>
@@ -19036,7 +18772,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.451316369734985</v>
+        <v>1.450741577330542</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.338756431176994</v>
@@ -19125,7 +18861,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.438988624726303</v>
+        <v>1.436749775405006</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.467160716416865</v>
@@ -19214,7 +18950,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.47170837833923</v>
+        <v>1.470901008862694</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.51010561714445</v>
@@ -19303,7 +19039,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.480473547662247</v>
+        <v>1.477769217561582</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.490131416722501</v>
@@ -19392,7 +19128,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.482918855682932</v>
+        <v>1.485847901259161</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.250848679416378</v>
@@ -19481,7 +19217,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.48665760359707</v>
+        <v>1.485619321466125</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.454358120174673</v>
@@ -19570,7 +19306,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.521304555257111</v>
+        <v>1.525321877828309</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.478617788276305</v>
@@ -19659,7 +19395,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.520741283265842</v>
+        <v>1.525737030350508</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.588474396796412</v>
@@ -19748,7 +19484,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.53336559207899</v>
+        <v>1.532166443028834</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.854984112953459</v>
@@ -19837,7 +19573,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.509045250534677</v>
+        <v>1.516454177130399</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.743804387281563</v>
@@ -19926,7 +19662,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.5200950382493</v>
+        <v>1.526340564570446</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.715798344836845</v>
@@ -20015,7 +19751,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.534652805864809</v>
+        <v>1.537248233828054</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.533817388358811</v>
@@ -20104,7 +19840,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.529781915922504</v>
+        <v>1.535337208812576</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.56090354794543</v>
@@ -20193,7 +19929,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.510815838456663</v>
+        <v>1.521238599325657</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.70915998423996</v>
@@ -20282,7 +20018,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.513907010178322</v>
+        <v>1.52258483266129</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.800337906132527</v>
@@ -20371,7 +20107,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.515655167310223</v>
+        <v>1.525200973978379</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.376067771878672</v>
@@ -20460,7 +20196,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.537935921011386</v>
+        <v>1.545184574417174</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.751137287633274</v>
@@ -20549,7 +20285,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.516950563804632</v>
+        <v>1.517981744420199</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.803436169311631</v>
@@ -20638,7 +20374,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.489781618158868</v>
+        <v>1.490241298353336</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.655896095191735</v>
@@ -20727,7 +20463,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.469077635895261</v>
+        <v>1.463537427805212</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.654949728898204</v>
@@ -20816,7 +20552,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.437225071291484</v>
+        <v>1.429402577395175</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.37754652885211</v>
@@ -20905,7 +20641,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.381082021653009</v>
+        <v>1.375164115068836</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.062026236906576</v>
@@ -20994,7 +20730,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.360030399355485</v>
+        <v>1.357086862294952</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.059078178587038</v>
@@ -21083,7 +20819,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.352652535734431</v>
+        <v>1.348934559529555</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.053852766350114</v>
@@ -21172,7 +20908,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.357245729567859</v>
+        <v>1.347371612516465</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.066803281948991</v>
@@ -21261,7 +20997,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.34262976771739</v>
+        <v>1.333947261373579</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.054253610830158</v>
@@ -21350,7 +21086,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.345299712183901</v>
+        <v>1.33216084940283</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.037402239925172</v>
@@ -21439,7 +21175,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.335617031618046</v>
+        <v>1.328107492338439</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.06135448239825</v>
@@ -21528,7 +21264,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.350424714235813</v>
+        <v>1.342248447961353</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.010379265343788</v>
@@ -21617,7 +21353,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.346426866417659</v>
+        <v>1.334278171384723</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.146037454269758</v>
@@ -21706,7 +21442,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.345889904717626</v>
+        <v>1.335501511633967</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.079206373568299</v>
@@ -21795,7 +21531,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.331122787538906</v>
+        <v>1.322145031915509</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.104396751531751</v>
@@ -21884,7 +21620,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.337253100314433</v>
+        <v>1.33393058511748</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.008765786996212</v>
@@ -21973,7 +21709,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.351303854669895</v>
+        <v>1.349981818366618</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.041952495510663</v>
@@ -22062,7 +21798,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.361015819232093</v>
+        <v>1.361861967783437</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.947219129231097</v>
@@ -22151,7 +21887,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.386894416596393</v>
+        <v>1.388941343885608</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.111085085088327</v>
@@ -22240,7 +21976,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.43594480582272</v>
+        <v>1.441877418401545</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.322516873688029</v>
@@ -22329,7 +22065,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.443797862343772</v>
+        <v>1.449318549316747</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.530788445358874</v>
@@ -22418,7 +22154,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.436844661047727</v>
+        <v>1.440930726993169</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.396197648942567</v>
@@ -22507,7 +22243,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.437601813553591</v>
+        <v>1.447780615648877</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.558049497867547</v>
@@ -22596,7 +22332,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.431306614338716</v>
+        <v>1.442639660525256</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.579316814058298</v>
@@ -22685,7 +22421,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.435473906094949</v>
+        <v>1.444669017845617</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.340720779022502</v>
@@ -22774,7 +22510,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.437045020153192</v>
+        <v>1.446191947400699</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.58729502543775</v>
@@ -22863,7 +22599,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.416808727709158</v>
+        <v>1.42632553473604</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.44028819194351</v>
@@ -22952,7 +22688,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.411635829321386</v>
+        <v>1.420702451582444</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.440626299841659</v>
@@ -23041,7 +22777,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.412713349733157</v>
+        <v>1.422197401076921</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.391595068524846</v>
@@ -23130,7 +22866,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.434150644566727</v>
+        <v>1.442301207141212</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.505224985068984</v>
@@ -23219,7 +22955,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.430410851920216</v>
+        <v>1.437435527260304</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.639061702240667</v>
@@ -23308,7 +23044,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.434946203647434</v>
+        <v>1.443065240304928</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.56018913653193</v>
@@ -23397,7 +23133,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.44356550940125</v>
+        <v>1.445337787370983</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.729699400821523</v>
@@ -23486,7 +23222,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.445246355842053</v>
+        <v>1.446378606051509</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.47643401392605</v>
@@ -23575,7 +23311,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.428092427087272</v>
+        <v>1.427092618755321</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.777344077796756</v>
@@ -23664,7 +23400,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.434797208310026</v>
+        <v>1.430776273017919</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.58007934108343</v>
@@ -23950,7 +23686,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.672421992673106</v>
+        <v>1.652349338891538</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.394362239941429</v>
@@ -24039,7 +23775,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.688662550467339</v>
+        <v>1.658107313552206</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.460470631065726</v>
@@ -24128,7 +23864,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.687536957187127</v>
+        <v>1.657094151443192</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.365480086368793</v>
@@ -24217,7 +23953,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.682846814028992</v>
+        <v>1.650689851700526</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.52948313121761</v>
@@ -24306,7 +24042,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.685428106110606</v>
+        <v>1.660519955252033</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.564977965561536</v>
@@ -24395,7 +24131,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.678241257924137</v>
+        <v>1.648320072456153</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.291997817239715</v>
@@ -24484,7 +24220,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.663574163153211</v>
+        <v>1.637089006360727</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.526402162967938</v>
@@ -24573,7 +24309,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.668968350460072</v>
+        <v>1.642611219764508</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.355136363804356</v>
@@ -24662,7 +24398,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.653741599456051</v>
+        <v>1.628812701243491</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.473743297989706</v>
@@ -24751,7 +24487,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.644452817809218</v>
+        <v>1.621684817752791</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.449401900136348</v>
@@ -24840,7 +24576,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.66710373745946</v>
+        <v>1.644441820515492</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.891630758785415</v>
@@ -24929,7 +24665,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.685551829235569</v>
+        <v>1.657677313440859</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.087206054163186</v>
@@ -25018,7 +24754,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.683837700540023</v>
+        <v>1.657260436500406</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.742229774210669</v>
@@ -25107,7 +24843,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.687276247269678</v>
+        <v>1.655290369495503</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.963308509634228</v>
@@ -25196,7 +24932,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.708821801251029</v>
+        <v>1.676422837182642</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.782978604687562</v>
@@ -25285,7 +25021,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.712243768385579</v>
+        <v>1.677734363480997</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.940709467756029</v>
@@ -25374,7 +25110,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.704912966146226</v>
+        <v>1.681706923835506</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.575608000908379</v>
@@ -25463,7 +25199,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.705062952276141</v>
+        <v>1.68039570121502</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.889857342533574</v>
@@ -25552,7 +25288,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.700177185205241</v>
+        <v>1.680202151369096</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.785793859990673</v>
@@ -25641,7 +25377,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.711609508849265</v>
+        <v>1.686083932200843</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.534431021543771</v>
@@ -25730,7 +25466,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.727635288152554</v>
+        <v>1.699924442991118</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.167723880001516</v>
@@ -25819,7 +25555,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.741992722217192</v>
+        <v>1.711672219149182</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.860739654381268</v>
@@ -25908,7 +25644,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.731125725404903</v>
+        <v>1.698879514281261</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.654438938733683</v>
@@ -25997,7 +25733,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.749908076730948</v>
+        <v>1.713876436420057</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.261935538478999</v>
@@ -26086,7 +25822,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.755970863237967</v>
+        <v>1.720808602904944</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.725384521007642</v>
@@ -26175,7 +25911,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.747691406061973</v>
+        <v>1.709477363035569</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.767240065540109</v>
@@ -26264,7 +26000,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.749365226106557</v>
+        <v>1.714656317711256</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.6821559376034</v>
@@ -26353,7 +26089,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.75565444895495</v>
+        <v>1.72317882164975</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.875704866483065</v>
@@ -26442,7 +26178,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.765811020374152</v>
+        <v>1.732285453910023</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.590860842385915</v>
@@ -26531,7 +26267,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.765635049330476</v>
+        <v>1.733578876249601</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.646364997000767</v>
@@ -26620,7 +26356,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.757992795854216</v>
+        <v>1.728375847531029</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.425899137834557</v>
@@ -26709,7 +26445,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.77158073737967</v>
+        <v>1.73695292338823</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.601603154198578</v>
@@ -26798,7 +26534,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.778800699794155</v>
+        <v>1.750262675899681</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.637203885269034</v>
@@ -26887,7 +26623,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.790491828295556</v>
+        <v>1.753825439833908</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.025574135108488</v>
@@ -26976,7 +26712,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.78836649252831</v>
+        <v>1.756256606381212</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.232488291699362</v>
@@ -27065,7 +26801,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.78202394030741</v>
+        <v>1.755876264587732</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.837448216837215</v>
@@ -27154,7 +26890,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.785615775321992</v>
+        <v>1.765165494242722</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.810112911050712</v>
@@ -27243,7 +26979,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.793934827848647</v>
+        <v>1.773122837272971</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.979687850840154</v>
@@ -27332,7 +27068,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.790065079586034</v>
+        <v>1.771168674221226</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.709986199078735</v>
@@ -27421,7 +27157,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.796178423711943</v>
+        <v>1.775788427741028</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.556325667745801</v>
@@ -27510,7 +27246,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.804282440344173</v>
+        <v>1.783855839981684</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.861350701875217</v>
@@ -27599,7 +27335,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.807218457011761</v>
+        <v>1.78067846026383</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.151225699504741</v>
@@ -27688,7 +27424,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.807157621212697</v>
+        <v>1.774923378402502</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.936612824317364</v>
@@ -27777,7 +27513,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.789606662242804</v>
+        <v>1.759944545520726</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.130478716458132</v>
@@ -27866,7 +27602,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.789811029126877</v>
+        <v>1.762033549057126</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.942670011140809</v>
@@ -27955,7 +27691,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.812674471803349</v>
+        <v>1.783715707248098</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.298683238156084</v>
@@ -28044,7 +27780,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.808316281862488</v>
+        <v>1.778713489224739</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.880926917089016</v>
@@ -28133,7 +27869,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.805280702554065</v>
+        <v>1.772071743533071</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.189528119097899</v>
@@ -28222,7 +27958,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.809139975248261</v>
+        <v>1.77974239250839</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.671154278874798</v>
@@ -28311,7 +28047,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.805581699222641</v>
+        <v>1.773857737044031</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.415287824078022</v>
@@ -28400,7 +28136,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.810417901748745</v>
+        <v>1.773138956691915</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.313841122044133</v>
@@ -28489,7 +28225,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.796179204557606</v>
+        <v>1.756737816705031</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.518485720938094</v>
@@ -28578,7 +28314,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.791736791057152</v>
+        <v>1.751964894487905</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.431783660027067</v>
@@ -28667,7 +28403,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.786080724568094</v>
+        <v>1.751052215942001</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.563577492235163</v>
@@ -28756,7 +28492,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.765123270680701</v>
+        <v>1.733620566479908</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.75607056678817</v>
@@ -28845,7 +28581,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.728521241999188</v>
+        <v>1.705643311613434</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.357726049402949</v>
@@ -28934,7 +28670,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.721284276284572</v>
+        <v>1.704241166801267</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.443439418153126</v>
@@ -29023,7 +28759,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.703239979899743</v>
+        <v>1.692033402425825</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.172985892625355</v>
@@ -29112,7 +28848,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.71052522838192</v>
+        <v>1.698461722161468</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.284472552086418</v>
@@ -29201,7 +28937,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.698745495170511</v>
+        <v>1.688862714974964</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.158250219625071</v>
@@ -29290,7 +29026,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.687231920451102</v>
+        <v>1.671206488778868</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.396406817171672</v>
@@ -29379,7 +29115,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.690469404486183</v>
+        <v>1.677877378279722</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.237275721643589</v>
@@ -29468,7 +29204,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.689604629852823</v>
+        <v>1.678208991236348</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.164205211373936</v>
@@ -29557,7 +29293,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.687121628611355</v>
+        <v>1.672029238539122</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.24084287417955</v>
@@ -29646,7 +29382,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.694819577519844</v>
+        <v>1.684689455817618</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.270569308164667</v>
@@ -29735,7 +29471,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.679671189609961</v>
+        <v>1.677114644487481</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.112484321381864</v>
@@ -29824,7 +29560,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.698148699879931</v>
+        <v>1.697432393780037</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.087633030313478</v>
@@ -29913,7 +29649,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.710096406048622</v>
+        <v>1.707862572896112</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.240588499584698</v>
@@ -30002,7 +29738,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.71255167243825</v>
+        <v>1.709413622781915</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.395296591902685</v>
@@ -30091,7 +29827,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.734998454621213</v>
+        <v>1.724025145822356</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.239673957085966</v>
@@ -30180,7 +29916,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.773532991274132</v>
+        <v>1.756709112223115</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.667278386166331</v>
@@ -30269,7 +30005,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.780092166742504</v>
+        <v>1.758378787376651</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.458494406408026</v>
@@ -30358,7 +30094,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.795860085655147</v>
+        <v>1.766274768998146</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.826340451291058</v>
@@ -30447,7 +30183,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.798299271098763</v>
+        <v>1.766397427670318</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.305201669792474</v>
@@ -30536,7 +30272,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.802721577205608</v>
+        <v>1.769297932002981</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.781142830784447</v>
@@ -30625,7 +30361,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.807782543597964</v>
+        <v>1.776438242929046</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.65589711071145</v>
@@ -30714,7 +30450,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.802104950561378</v>
+        <v>1.771736479611642</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.086893861808227</v>
@@ -30803,7 +30539,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.80112684767244</v>
+        <v>1.773666012025447</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.985251115108567</v>
@@ -30892,7 +30628,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.788333920509484</v>
+        <v>1.765024841776288</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.755271214030492</v>
@@ -30981,7 +30717,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.778484918825836</v>
+        <v>1.754551242241028</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.064726435597168</v>
@@ -31070,7 +30806,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.790250967385086</v>
+        <v>1.763939602618499</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.700198091363065</v>
@@ -31159,7 +30895,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.781819954986221</v>
+        <v>1.757595303246108</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.362401890360862</v>
@@ -31248,7 +30984,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.773552885508153</v>
+        <v>1.751980039872333</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.033609771879157</v>
@@ -31337,7 +31073,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.779847138203345</v>
+        <v>1.759366992457808</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.549179422027284</v>
@@ -31426,7 +31162,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.781097022598172</v>
+        <v>1.76930850511881</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.663270791071344</v>
@@ -31515,7 +31251,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.765638278910812</v>
+        <v>1.755038643119878</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.6263857692814</v>
@@ -31604,7 +31340,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.76189844743989</v>
+        <v>1.753106270603452</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.030763071025428</v>
@@ -31890,7 +31626,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.677443353678475</v>
+        <v>1.654305013355077</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.18727239307088</v>
@@ -31979,7 +31715,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.676069108145543</v>
+        <v>1.65119254585453</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.451330380411242</v>
@@ -32068,7 +31804,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.674464915171402</v>
+        <v>1.647219573904248</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.265649370310916</v>
@@ -32157,7 +31893,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.684498795116081</v>
+        <v>1.65367911970988</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.354402813506661</v>
@@ -32246,7 +31982,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.685112563941579</v>
+        <v>1.651481276945661</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.476136142702343</v>
@@ -32335,7 +32071,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.673866476939704</v>
+        <v>1.637613755844142</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.429216429116495</v>
@@ -32424,7 +32160,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.666235919268922</v>
+        <v>1.629322933063444</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.125184678344729</v>
@@ -32513,7 +32249,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.67008014680879</v>
+        <v>1.63363695819408</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.339088351189211</v>
@@ -32602,7 +32338,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.660327085572363</v>
+        <v>1.626238477112343</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.122350147363525</v>
@@ -32691,7 +32427,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.656023244262821</v>
+        <v>1.619850068656183</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.806483437766586</v>
@@ -32780,7 +32516,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.642588672278845</v>
+        <v>1.614255824223886</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.095459569225569</v>
@@ -32869,7 +32605,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.650377831184211</v>
+        <v>1.617033668060936</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.199575168981728</v>
@@ -32958,7 +32694,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.669892419092696</v>
+        <v>1.632606966094966</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.961472457182828</v>
@@ -33047,7 +32783,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.685237739710733</v>
+        <v>1.64443768783606</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.955790736761979</v>
@@ -33136,7 +32872,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.685065041861204</v>
+        <v>1.64509685920039</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.092271268736461</v>
@@ -33225,7 +32961,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.688335245722971</v>
+        <v>1.64335580123065</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.520213336069071</v>
@@ -33314,7 +33050,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.688111659858197</v>
+        <v>1.641223401090027</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.906920111866887</v>
@@ -33403,7 +33139,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.690161217198098</v>
+        <v>1.642369010437631</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.974414571607846</v>
@@ -33492,7 +33228,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.682323425255924</v>
+        <v>1.63718797644201</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.214028068938922</v>
@@ -33581,7 +33317,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.674110603573279</v>
+        <v>1.633387520642351</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.147248136576238</v>
@@ -33670,7 +33406,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.672139544167538</v>
+        <v>1.631482667534511</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.176295164824972</v>
@@ -33759,7 +33495,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.675726002411785</v>
+        <v>1.631100387376024</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.287485847063423</v>
@@ -33848,7 +33584,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.680678563141308</v>
+        <v>1.630860223400386</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.042895324091509</v>
@@ -33937,7 +33673,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.677617890574376</v>
+        <v>1.624126139806641</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.382409208988717</v>
@@ -34026,7 +33762,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.665756497386128</v>
+        <v>1.617587622005069</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.122707594460004</v>
@@ -34115,7 +33851,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.675758753550673</v>
+        <v>1.629894397396621</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.86221744323672</v>
@@ -34204,7 +33940,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.663399155315691</v>
+        <v>1.617682809166987</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.370931268529942</v>
@@ -34293,7 +34029,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.656910573427131</v>
+        <v>1.61703564147755</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.020185585312809</v>
@@ -34382,7 +34118,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.657412013602714</v>
+        <v>1.618085444797392</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.877428794676034</v>
@@ -34471,7 +34207,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.651377269199336</v>
+        <v>1.615605362550583</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.284862567325081</v>
@@ -34560,7 +34296,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.654823410175966</v>
+        <v>1.619851967123373</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.230845429883781</v>
@@ -34649,7 +34385,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.661472792834118</v>
+        <v>1.630409938611212</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.349486338557472</v>
@@ -34738,7 +34474,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.657315758624106</v>
+        <v>1.631155511853068</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.386947388241512</v>
@@ -34827,7 +34563,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.663665595917522</v>
+        <v>1.636850004163605</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.440894624018359</v>
@@ -34916,7 +34652,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.669011932609436</v>
+        <v>1.644161153554517</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.519734449701532</v>
@@ -35005,7 +34741,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.672119295288546</v>
+        <v>1.648312098651903</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.220012145580831</v>
@@ -35094,7 +34830,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.678218908241312</v>
+        <v>1.656239106546176</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.521005072723458</v>
@@ -35183,7 +34919,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.653769259094255</v>
+        <v>1.644009157471296</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.108528270375468</v>
@@ -35272,7 +35008,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.651687560876933</v>
+        <v>1.64719349719606</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.692034262067548</v>
@@ -35361,7 +35097,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.677759106917585</v>
+        <v>1.665018125219125</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.146236594483191</v>
@@ -35450,7 +35186,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.684628086693504</v>
+        <v>1.668703013521941</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.989650816349837</v>
@@ -35539,7 +35275,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.692550363642572</v>
+        <v>1.67395962450394</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.830527964982849</v>
@@ -35628,7 +35364,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.697565476274795</v>
+        <v>1.674203573496552</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.187989437894549</v>
@@ -35717,7 +35453,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.691875799328243</v>
+        <v>1.667947800276631</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.92495685860383</v>
@@ -35806,7 +35542,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.699461448368397</v>
+        <v>1.6725179668326</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.990088997419989</v>
@@ -35895,7 +35631,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.707424136661021</v>
+        <v>1.683916702605857</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.839755182712828</v>
@@ -35984,7 +35720,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.699875944463514</v>
+        <v>1.676106676360296</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.099725810827592</v>
@@ -36073,7 +35809,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.703327836328497</v>
+        <v>1.673987350544686</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.937328648624244</v>
@@ -36162,7 +35898,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.709608646343129</v>
+        <v>1.681861565639392</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.926773763180476</v>
@@ -36251,7 +35987,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.713207191529377</v>
+        <v>1.684128937128452</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.951903846270693</v>
@@ -36340,7 +36076,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.70986172195158</v>
+        <v>1.681984600059868</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.967472360882295</v>
@@ -36429,7 +36165,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.720646284616121</v>
+        <v>1.688427203111006</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.01778983232947</v>
@@ -36518,7 +36254,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.7381686445466</v>
+        <v>1.694874214300456</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.689685257666492</v>
@@ -36607,7 +36343,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.731663690670051</v>
+        <v>1.688938749173507</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.65054309912146</v>
@@ -36696,7 +36432,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.715927030680987</v>
+        <v>1.678244114913116</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.850009777387096</v>
@@ -36785,7 +36521,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.691603535245268</v>
+        <v>1.658955951717727</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.311731632656216</v>
@@ -36874,7 +36610,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.694599601534911</v>
+        <v>1.666376341338833</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.242353146421509</v>
@@ -36963,7 +36699,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.683258938746395</v>
+        <v>1.655769227174674</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.373585170225703</v>
@@ -37052,7 +36788,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.680423127647815</v>
+        <v>1.651364161964545</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.24840207354908</v>
@@ -37141,7 +36877,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.667012960490116</v>
+        <v>1.646275119296983</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.158680123609727</v>
@@ -37230,7 +36966,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.655556869288929</v>
+        <v>1.634226550897525</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.053940627163651</v>
@@ -37319,7 +37055,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.659832198116891</v>
+        <v>1.637223598493476</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.071663711711961</v>
@@ -37408,7 +37144,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.654341733505289</v>
+        <v>1.632135157331521</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.285236492575281</v>
@@ -37497,7 +37233,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.658426704724646</v>
+        <v>1.634371128587827</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.916396941052358</v>
@@ -37586,7 +37322,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.64667619173263</v>
+        <v>1.625307494341094</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.283221654865535</v>
@@ -37675,7 +37411,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.648562605030853</v>
+        <v>1.629346197595881</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.206723707979196</v>
@@ -37764,7 +37500,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.646973040880824</v>
+        <v>1.63085323070422</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.875407454842548</v>
@@ -37853,7 +37589,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.663622995121445</v>
+        <v>1.651150218091638</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.422655558371031</v>
@@ -37942,7 +37678,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.674897982818169</v>
+        <v>1.659570985090624</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.493916263489429</v>
@@ -38031,7 +37767,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.683109449775251</v>
+        <v>1.665365310916351</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.988271092567111</v>
@@ -38120,7 +37856,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.699626166052616</v>
+        <v>1.675192037458647</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.176045867134365</v>
@@ -38209,7 +37945,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.700208021774555</v>
+        <v>1.675929876901027</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.957657802888577</v>
@@ -38298,7 +38034,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.713893443981623</v>
+        <v>1.687456945135933</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.432050298645549</v>
@@ -38387,7 +38123,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.716322820584756</v>
+        <v>1.694930698467839</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.90028699502603</v>
@@ -38476,7 +38212,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.724294703152285</v>
+        <v>1.69787673819265</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.749886568203755</v>
@@ -38565,7 +38301,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.734237391596006</v>
+        <v>1.704695027832433</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.64909947671854</v>
@@ -38654,7 +38390,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.729076380048478</v>
+        <v>1.70020173924155</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.882986021684078</v>
@@ -38743,7 +38479,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.730375981765841</v>
+        <v>1.703249885573341</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.041220675320643</v>
@@ -38832,7 +38568,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.709395935613896</v>
+        <v>1.686145716616432</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.17022633159757</v>
@@ -38921,7 +38657,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.712486054608839</v>
+        <v>1.690509726869483</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.014780043151824</v>
@@ -39010,7 +38746,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.699959086343491</v>
+        <v>1.67833817203181</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.538194491180196</v>
@@ -39099,7 +38835,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.710462880709606</v>
+        <v>1.681559217192106</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.844055514051253</v>
@@ -39188,7 +38924,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.705408332863855</v>
+        <v>1.67709667129849</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.082559884176247</v>
@@ -39277,7 +39013,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.711967269833534</v>
+        <v>1.685697502818945</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.952326028029971</v>
@@ -39366,7 +39102,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.706364524452483</v>
+        <v>1.68085495516658</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.439380382445556</v>
@@ -39455,7 +39191,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.693398014588327</v>
+        <v>1.672529959562654</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.86538536363167</v>
@@ -39544,7 +39280,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.693552763713049</v>
+        <v>1.674214059907797</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.484219978652662</v>
@@ -39830,7 +39566,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.522466430136519</v>
+        <v>1.508967341872492</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.942681739956826</v>
@@ -39919,7 +39655,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.529699277334134</v>
+        <v>1.516251482308643</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.571312055840395</v>
@@ -40008,7 +39744,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.555430247668324</v>
+        <v>1.536333133998791</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.572685791619749</v>
@@ -40097,7 +39833,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.56866930008755</v>
+        <v>1.542897719142079</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.926384877810832</v>
@@ -40186,7 +39922,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.571538354088963</v>
+        <v>1.544203020806284</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.006491407409356</v>
@@ -40275,7 +40011,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536733212292827</v>
+        <v>1.513587857568393</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.836048224955912</v>
@@ -40364,7 +40100,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.512496938673604</v>
+        <v>1.487344514913997</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.765566797660673</v>
@@ -40453,7 +40189,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.524973615679958</v>
+        <v>1.499587577451554</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.814963810447328</v>
@@ -40542,7 +40278,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.524464613615497</v>
+        <v>1.49743974781515</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.706112029198834</v>
@@ -40631,7 +40367,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.500501796881608</v>
+        <v>1.477212236376355</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.842571615877391</v>
@@ -40720,7 +40456,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.50364442845018</v>
+        <v>1.48146856917676</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.570894446712094</v>
@@ -40809,7 +40545,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.51603024183885</v>
+        <v>1.498430291345301</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.717814515086605</v>
@@ -40898,7 +40634,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.523228900331073</v>
+        <v>1.499255073214037</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.782324973116653</v>
@@ -40987,7 +40723,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.535218587194474</v>
+        <v>1.512485526269908</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.669071612124783</v>
@@ -41076,7 +40812,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.540845505939191</v>
+        <v>1.518884526489569</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.81631888746732</v>
@@ -41165,7 +40901,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.558618302231201</v>
+        <v>1.53292000405857</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.828660835784871</v>
@@ -41254,7 +40990,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545050351018364</v>
+        <v>1.517131023334043</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.779751842361887</v>
@@ -41343,7 +41079,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.53932757507018</v>
+        <v>1.51053774301247</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.848914985713375</v>
@@ -41432,7 +41168,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.530200196906804</v>
+        <v>1.508717942469409</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.706420403967765</v>
@@ -41521,7 +41257,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.526887392378162</v>
+        <v>1.505155373066196</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.632870962574098</v>
@@ -41610,7 +41346,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548644328352949</v>
+        <v>1.525077471007773</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.665133562744493</v>
@@ -41699,7 +41435,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.557836215343946</v>
+        <v>1.535538637362776</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.921712830129453</v>
@@ -41788,7 +41524,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.545429202436686</v>
+        <v>1.521440508169308</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.683107352653976</v>
@@ -41877,7 +41613,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.558657702334388</v>
+        <v>1.53584583590972</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.759477051423203</v>
@@ -41966,7 +41702,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574089207037326</v>
+        <v>1.548691303096608</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.888155237063701</v>
@@ -42055,7 +41791,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.566419995758656</v>
+        <v>1.533507764809485</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.75780823327612</v>
@@ -42144,7 +41880,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.562240988934357</v>
+        <v>1.527755037968816</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.673512368572786</v>
@@ -42233,7 +41969,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.566186021292356</v>
+        <v>1.534334210978676</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.700982063477223</v>
@@ -42322,7 +42058,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.564454368242851</v>
+        <v>1.531248501169074</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.685791492901533</v>
@@ -42411,7 +42147,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568252649225506</v>
+        <v>1.532524934543677</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.728158836283787</v>
@@ -42500,7 +42236,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.577396727620608</v>
+        <v>1.542820847077496</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.289028696843987</v>
@@ -42589,7 +42325,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.580039807621567</v>
+        <v>1.549294460592292</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.679237914010462</v>
@@ -42678,7 +42414,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.584274256068138</v>
+        <v>1.551202178361858</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.5146425486294</v>
@@ -42767,7 +42503,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.579971459853549</v>
+        <v>1.541614271280885</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.716006378923171</v>
@@ -42856,7 +42592,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573980191434161</v>
+        <v>1.54112104551783</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.627427550236558</v>
@@ -42945,7 +42681,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.567835153849431</v>
+        <v>1.532037776785572</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.726544565926344</v>
@@ -43034,7 +42770,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.590912338555899</v>
+        <v>1.553339403779711</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.891301096823222</v>
@@ -43123,7 +42859,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.593797930639775</v>
+        <v>1.556725379102519</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.759594566923807</v>
@@ -43212,7 +42948,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584123749346606</v>
+        <v>1.552371586541268</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.701050959511605</v>
@@ -43301,7 +43037,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.578309106255478</v>
+        <v>1.546334045840439</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.675324188163041</v>
@@ -43390,7 +43126,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.605052564774814</v>
+        <v>1.576603029006835</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.960911543510772</v>
@@ -43479,7 +43215,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.612753206801031</v>
+        <v>1.586132576194435</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.260184535214477</v>
@@ -43568,7 +43304,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.6086902503631</v>
+        <v>1.579786687321388</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.326320248388134</v>
@@ -43657,7 +43393,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.610581369224454</v>
+        <v>1.586349496555415</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.295245860900348</v>
@@ -43746,7 +43482,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.605908773522574</v>
+        <v>1.583689814826603</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.841520345784523</v>
@@ -43835,7 +43571,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.611328023589584</v>
+        <v>1.585100186477564</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.43195148753408</v>
@@ -43924,7 +43660,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.610371620357743</v>
+        <v>1.581678482453398</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.152215683750788</v>
@@ -44013,7 +43749,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.617575278736457</v>
+        <v>1.58758746998281</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.360236603824477</v>
@@ -44102,7 +43838,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615660692343941</v>
+        <v>1.581306922193851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.491284233379057</v>
@@ -44191,7 +43927,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.614335141676941</v>
+        <v>1.57798694675341</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.535815321167012</v>
@@ -44280,7 +44016,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.617908400897381</v>
+        <v>1.581253088247663</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.066678282912284</v>
@@ -44369,7 +44105,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.599012076554152</v>
+        <v>1.559149098924275</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.557363221086719</v>
@@ -44458,7 +44194,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.601809250850089</v>
+        <v>1.557292717460625</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.858522079825994</v>
@@ -44547,7 +44283,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.599358260551103</v>
+        <v>1.548771831514999</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.056223885954976</v>
@@ -44636,7 +44372,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.561721157985776</v>
+        <v>1.516506018137316</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.419744902222588</v>
@@ -44725,7 +44461,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.495183769440521</v>
+        <v>1.460130522903866</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.191908450071121</v>
@@ -44814,7 +44550,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.481510031469255</v>
+        <v>1.450750663196824</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.212093425108606</v>
@@ -44903,7 +44639,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.459645673331312</v>
+        <v>1.432880644987704</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.235646225155286</v>
@@ -44992,7 +44728,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.451861269086681</v>
+        <v>1.422199663163696</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.248181499925763</v>
@@ -45081,7 +44817,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.447159535089199</v>
+        <v>1.417913327277956</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.218623644396112</v>
@@ -45170,7 +44906,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.438850931728061</v>
+        <v>1.411318730588213</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.221731342174338</v>
@@ -45259,7 +44995,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.433683024594395</v>
+        <v>1.408535880068481</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.186749954939312</v>
@@ -45348,7 +45084,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.436218499396959</v>
+        <v>1.409246401749868</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.222796785037949</v>
@@ -45437,7 +45173,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.431113917412144</v>
+        <v>1.409775494697235</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.229463679370917</v>
@@ -45526,7 +45262,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.433897747924251</v>
+        <v>1.416958080514374</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.177124063306139</v>
@@ -45615,7 +45351,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.426980662691514</v>
+        <v>1.408259716252342</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.276339146294109</v>
@@ -45704,7 +45440,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.436195512688396</v>
+        <v>1.419801877978834</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.204479283011268</v>
@@ -45793,7 +45529,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.442480072393711</v>
+        <v>1.42808780810459</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.190184163304533</v>
@@ -45882,7 +45618,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.440929057454441</v>
+        <v>1.427004309307258</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.117650253764718</v>
@@ -45971,7 +45707,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.461697660642074</v>
+        <v>1.442163634340486</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.06408796508795</v>
@@ -46060,7 +45796,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.504302679997246</v>
+        <v>1.489936580533869</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.43184852899578</v>
@@ -46149,7 +45885,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.511217228420411</v>
+        <v>1.490774308857796</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.472957786887321</v>
@@ -46238,7 +45974,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.536638053125324</v>
+        <v>1.515975498282284</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.916752617379461</v>
@@ -46327,7 +46063,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.543603452880679</v>
+        <v>1.524349191031246</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.640418928060712</v>
@@ -46416,7 +46152,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.544133200858551</v>
+        <v>1.522467758518174</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.68916050888552</v>
@@ -46505,7 +46241,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.545765689930114</v>
+        <v>1.522716313752033</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.513057019445782</v>
@@ -46594,7 +46330,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.552054559978092</v>
+        <v>1.529469816203738</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.811726537331192</v>
@@ -46683,7 +46419,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.547709856670301</v>
+        <v>1.522738588334405</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.27517272665663</v>
@@ -46772,7 +46508,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.542747353657152</v>
+        <v>1.517841519673578</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.757569602586072</v>
@@ -46861,7 +46597,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.535907138654691</v>
+        <v>1.502422261045938</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.892209150560613</v>
@@ -46950,7 +46686,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.540429440907923</v>
+        <v>1.511675265065702</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.745629005429764</v>
@@ -47039,7 +46775,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.53590197772221</v>
+        <v>1.508178418649388</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.894870852010032</v>
@@ -47128,7 +46864,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.533795153970673</v>
+        <v>1.505456730759356</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.701052115743516</v>
@@ -47217,7 +46953,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.533167223930738</v>
+        <v>1.505785525516365</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.015008190305616</v>
@@ -47306,7 +47042,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.54971416491697</v>
+        <v>1.519997020004846</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.715617279421755</v>
@@ -47395,7 +47131,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.541611581531979</v>
+        <v>1.508054617412492</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.875974286825668</v>
@@ -47484,7 +47220,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.539415443315052</v>
+        <v>1.500769113206362</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.034954402280294</v>
@@ -47770,7 +47506,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.372940698153881</v>
+        <v>1.383889293635212</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.325788824342507</v>
@@ -47859,7 +47595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.395134179110581</v>
+        <v>1.407667967321674</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.083738856105969</v>
@@ -47948,7 +47684,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.418912748682512</v>
+        <v>1.433990438820548</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.151620486451383</v>
@@ -48037,7 +47773,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.443240188822681</v>
+        <v>1.456257897810496</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.296118050379717</v>
@@ -48126,7 +47862,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.441987910575384</v>
+        <v>1.45993410672154</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.281110894005757</v>
@@ -48215,7 +47951,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.425547496134375</v>
+        <v>1.436848376397656</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.408343533868271</v>
@@ -48304,7 +48040,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.415703239945102</v>
+        <v>1.424791378610041</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.453550597831173</v>
@@ -48393,7 +48129,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.412715295895169</v>
+        <v>1.426275715570422</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.332605252019944</v>
@@ -48482,7 +48218,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.4172416626132</v>
+        <v>1.42493574232924</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.414465907340995</v>
@@ -48571,7 +48307,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.374832082501631</v>
+        <v>1.385109383761111</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.331845322453164</v>
@@ -48660,7 +48396,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.405897500054849</v>
+        <v>1.415318724776986</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.16197883072977</v>
@@ -48749,7 +48485,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.42242199188362</v>
+        <v>1.432078776746911</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.327284499375924</v>
@@ -48838,7 +48574,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.388480281815158</v>
+        <v>1.395963496608545</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.184730893815775</v>
@@ -48927,7 +48663,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.378781160336615</v>
+        <v>1.38401491563094</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.233706511229402</v>
@@ -49016,7 +48752,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.400368471671823</v>
+        <v>1.40724317116382</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.180686608230608</v>
@@ -49105,7 +48841,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.405265729600706</v>
+        <v>1.409263566022521</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.233825855658534</v>
@@ -49194,7 +48930,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.393665167252335</v>
+        <v>1.393811959760281</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.239681100202517</v>
@@ -49283,7 +49019,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.391911922012008</v>
+        <v>1.386569250375853</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.100440422041113</v>
@@ -49372,7 +49108,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.361144490398285</v>
+        <v>1.362132586476111</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.154043467666936</v>
@@ -49461,7 +49197,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.389771555390773</v>
+        <v>1.389628111029334</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.233509937060507</v>
@@ -49550,7 +49286,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.400671240603139</v>
+        <v>1.402432823794118</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.192840794268842</v>
@@ -49639,7 +49375,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.404758259273041</v>
+        <v>1.405054230548172</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.097448318495168</v>
@@ -49728,7 +49464,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.407728106879106</v>
+        <v>1.400636020220825</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.213972527218912</v>
@@ -49817,7 +49553,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.421885280281776</v>
+        <v>1.411364830672063</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.287320567555486</v>
@@ -49906,7 +49642,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.456369880539502</v>
+        <v>1.447148031853945</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.501050860930144</v>
@@ -49995,7 +49731,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.438736056090695</v>
+        <v>1.432380366088445</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.592150935216795</v>
@@ -50084,7 +49820,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.449788211889715</v>
+        <v>1.444448793397295</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.413657960433117</v>
@@ -50173,7 +49909,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.48755955148331</v>
+        <v>1.483934689335509</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.543367064828618</v>
@@ -50262,7 +49998,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538334675314856</v>
+        <v>1.530932853969022</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.319089628210244</v>
@@ -50351,7 +50087,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.534122710627801</v>
+        <v>1.530500235573663</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.533537943117076</v>
@@ -50440,7 +50176,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.533439621435996</v>
+        <v>1.526576001151445</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.573077602112823</v>
@@ -50529,7 +50265,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.541406777877465</v>
+        <v>1.53640713718702</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.37635574070857</v>
@@ -50618,7 +50354,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532321087782323</v>
+        <v>1.536114806300557</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.219199010253973</v>
@@ -50707,7 +50443,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.577239391493499</v>
+        <v>1.578656429143569</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.45395575592332</v>
@@ -50796,7 +50532,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.587857218589724</v>
+        <v>1.593780376005459</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.454187416976733</v>
@@ -50885,7 +50621,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.562694749563661</v>
+        <v>1.569963453586936</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.601711831873275</v>
@@ -50974,7 +50710,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.600306292897575</v>
+        <v>1.607725910949768</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.435781903551343</v>
@@ -51063,7 +50799,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.602705278217975</v>
+        <v>1.623885759750151</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.45229684695968</v>
@@ -51152,7 +50888,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.632501896152401</v>
+        <v>1.656005340853702</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.580541028169177</v>
@@ -51241,7 +50977,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.639430571647888</v>
+        <v>1.661364978827287</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.689824876985739</v>
@@ -51330,7 +51066,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.683949390850128</v>
+        <v>1.704605986554632</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.500270477547449</v>
@@ -51419,7 +51155,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.656748433524684</v>
+        <v>1.675922333955376</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.481770876627542</v>
@@ -51508,7 +51244,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.653230914814348</v>
+        <v>1.66896080815678</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.55135006209629</v>
@@ -51597,7 +51333,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.585085386930313</v>
+        <v>1.602702779249097</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.518779779523533</v>
@@ -51686,7 +51422,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588660281911835</v>
+        <v>1.606894884695679</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.543950727740627</v>
@@ -51775,7 +51511,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.617070674816457</v>
+        <v>1.637270826849339</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.379296680093005</v>
@@ -51864,7 +51600,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.611770445096735</v>
+        <v>1.629379424294137</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.268677389655013</v>
@@ -51953,7 +51689,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56506648677562</v>
+        <v>1.570564471541602</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.305137803368193</v>
@@ -52042,7 +51778,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.514311632963478</v>
+        <v>1.529801905885748</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.396362424207773</v>
@@ -52131,7 +51867,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.494051632849625</v>
+        <v>1.516189550663259</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.09743476975371</v>
@@ -52220,7 +51956,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.506953986645236</v>
+        <v>1.529076045675356</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.371057024625387</v>
@@ -52309,7 +52045,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.493103499089578</v>
+        <v>1.508043048094417</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.37229532058045</v>
@@ -52398,7 +52134,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.452947061701116</v>
+        <v>1.462355484983599</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.441999093741536</v>
@@ -52487,7 +52223,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.404278503104031</v>
+        <v>1.408020762017312</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.479763237121246</v>
@@ -52576,7 +52312,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.370043752425123</v>
+        <v>1.370600109912306</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.42819895810566</v>
@@ -52665,7 +52401,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.352437529605211</v>
+        <v>1.350319934437441</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.432118292220659</v>
@@ -52754,7 +52490,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.348427947764992</v>
+        <v>1.346926603290467</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.454769877033191</v>
@@ -52843,7 +52579,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.349332564438841</v>
+        <v>1.342671745501558</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.381642609150881</v>
@@ -52932,7 +52668,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.358472667873613</v>
+        <v>1.353887670291062</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.467325435641883</v>
@@ -53021,7 +52757,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.332132908175546</v>
+        <v>1.329117807047313</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.493442854837923</v>
@@ -53110,7 +52846,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.323176453049301</v>
+        <v>1.312678394147018</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.382422010749444</v>
@@ -53199,7 +52935,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.313067662762417</v>
+        <v>1.307373174309591</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.510705304484159</v>
@@ -53288,7 +53024,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.343960449626397</v>
+        <v>1.335062755030772</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.226226773203652</v>
@@ -53377,7 +53113,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.365298064036498</v>
+        <v>1.353215885063293</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.159601867798894</v>
@@ -53466,7 +53202,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.362379597134005</v>
+        <v>1.355131884521558</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.481727644490533</v>
@@ -53555,7 +53291,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.340031064118156</v>
+        <v>1.33421777865275</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.565081139798118</v>
@@ -53644,7 +53380,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.351612197723641</v>
+        <v>1.350873029534779</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.596656251976595</v>
@@ -53733,7 +53469,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.372428615738439</v>
+        <v>1.376447122519338</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.480355619057463</v>
@@ -53822,7 +53558,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.406985712109088</v>
+        <v>1.413304142072544</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.286804212052639</v>
@@ -53911,7 +53647,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.427182460776461</v>
+        <v>1.439807780372517</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.517066963058999</v>
@@ -54000,7 +53736,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.445257047029277</v>
+        <v>1.460281797250892</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.474736150527908</v>
@@ -54089,7 +53825,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.451569550840554</v>
+        <v>1.466846674858114</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.461020279082673</v>
@@ -54178,7 +53914,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.425185431241587</v>
+        <v>1.442256149020715</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.241984289758775</v>
@@ -54267,7 +54003,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.444867574134578</v>
+        <v>1.462109113714591</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.246127242686607</v>
@@ -54356,7 +54092,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.470647018859004</v>
+        <v>1.484906638245187</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.467917241846986</v>
@@ -54445,7 +54181,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.486517683871002</v>
+        <v>1.492589191244731</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.278374330327032</v>
@@ -54534,7 +54270,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.476986970410211</v>
+        <v>1.490961431950314</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.538096587522367</v>
@@ -54623,7 +54359,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.475897692377244</v>
+        <v>1.490791730030371</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.686540848774853</v>
@@ -54712,7 +54448,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.445673860566505</v>
+        <v>1.461227047932485</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.440403372513273</v>
@@ -54801,7 +54537,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.443299862888454</v>
+        <v>1.457877416702491</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.32460704078988</v>
@@ -54890,7 +54626,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.477964627378767</v>
+        <v>1.491575997735816</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.347796482365336</v>
@@ -54979,7 +54715,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.487487727265433</v>
+        <v>1.497798071142939</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.564779314653868</v>
@@ -55068,7 +54804,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.487887755080822</v>
+        <v>1.500907482316953</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.490285733970012</v>
@@ -55157,7 +54893,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.512615945336731</v>
+        <v>1.519135788349117</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.578569280113331</v>
@@ -55246,7 +54982,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.502076804272795</v>
+        <v>1.513462406363253</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.517796237727872</v>
@@ -55335,7 +55071,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.480226922833294</v>
+        <v>1.48973762778139</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.55967379842277</v>
@@ -55424,7 +55160,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.497728778413735</v>
+        <v>1.505315459250946</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.526916149542616</v>
